--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_9_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1462479.582554671</v>
+        <v>1459658.910791441</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4310729.671070182</v>
+        <v>4310729.671070183</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5155573.732531253</v>
+        <v>5155573.732531249</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>11.63953991469741</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>363.914704715472</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>36.74864875514482</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -800,7 +800,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>177.1502799277856</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="T4" t="n">
-        <v>193.7921298023268</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>100.9821821542851</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>256.4713410487631</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1037,13 +1037,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>177.1502799277856</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>126.8552812749875</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>70.99069090146993</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.9632162960283</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1150,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.21855388549204</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>252.4364089650934</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>169.6488081323832</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>136.748213393228</v>
       </c>
       <c r="Y9" t="n">
         <v>177.5210747552478</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>152.5952327633134</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1308,7 +1308,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>109.4449070220127</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.2867185889705</v>
       </c>
       <c r="H11" t="n">
-        <v>313.2185374901028</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>108.2549035822485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>80.29783302491808</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U11" t="n">
         <v>253.1356495203149</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>112.2542472686998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T13" t="n">
-        <v>231.935127539262</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5661902178689</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>80.22824302474251</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.4215343235819</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>408.2867185889705</v>
       </c>
       <c r="H14" t="n">
-        <v>256.1465459843493</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>282.0726093058276</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4757212913208</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9549450363038</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>121.7217038220421</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5661902178689</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>259.3743903331589</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>211.1637978991365</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>408.2867185889705</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>313.2185374901028</v>
       </c>
       <c r="I17" t="n">
         <v>108.2549035822485</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>119.313870290517</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>1.805994157617013</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5661902178689</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>104.3929706182741</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.07455282100987</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>385.4584070821386</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2101,7 +2101,7 @@
         <v>313.2185374901028</v>
       </c>
       <c r="I20" t="n">
-        <v>108.2549035822485</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>147.885191037193</v>
       </c>
       <c r="T20" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1356495203149</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2375969463139</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>150.9549450363038</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.466596915040249</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>107.6478832032705</v>
       </c>
       <c r="S22" t="n">
-        <v>5.809487239583865</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>231.935127539262</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5661902178689</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>146.7082541203394</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>408.2867185889705</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>313.2185374901028</v>
       </c>
       <c r="I23" t="n">
-        <v>108.2549035822485</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>147.885191037193</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>218.0379652851626</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>58.54975995403107</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>169.3714990256534</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>37.59402332446653</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>121.7217038220421</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>107.6478832032705</v>
       </c>
       <c r="S25" t="n">
-        <v>194.9686705428615</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>231.935127539262</v>
@@ -2535,10 +2535,10 @@
         <v>282.5661902178689</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>147.885191037193</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.0069444081672</v>
+        <v>209.7294675019118</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1356495203149</v>
       </c>
       <c r="V26" t="n">
-        <v>54.0720052848832</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>131.8924768222341</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>121.7217038220421</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>107.6478832032705</v>
       </c>
       <c r="S28" t="n">
-        <v>194.9686705428615</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>25.37923643080101</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -2794,7 +2794,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
@@ -2809,10 +2809,10 @@
         <v>408.2867185889705</v>
       </c>
       <c r="H29" t="n">
-        <v>216.6410560491279</v>
+        <v>157.4470205017905</v>
       </c>
       <c r="I29" t="n">
-        <v>108.2549035822485</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.38088318794</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.9686705428615</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>231.935127539262</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5661902178689</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>201.1190649165302</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>250.8051587082987</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>408.2867185889705</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>313.2185374901028</v>
       </c>
       <c r="I32" t="n">
-        <v>108.2549035822485</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>147.885191037193</v>
       </c>
       <c r="T32" t="n">
-        <v>97.35916848981411</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1356495203149</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.52841987751074</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>135.4215343235821</v>
       </c>
       <c r="H34" t="n">
-        <v>150.9549450363038</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.466596915040249</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.9686705428615</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>231.935127539262</v>
@@ -3249,7 +3249,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>132.5470059592589</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.2867185889705</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>313.2185374901028</v>
       </c>
       <c r="I35" t="n">
-        <v>108.2549035822485</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>147.885191037193</v>
       </c>
       <c r="T35" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1356495203149</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>18.94330017273609</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -3334,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2375969463139</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.466596915040249</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>231.935127539262</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5661902178689</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>232.5626938673279</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>49.74898076255248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.28072561915216</v>
+        <v>147.885191037193</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1356495203149</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>178.3831819119798</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3666,16 +3666,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>73.03754065721583</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.466596915040249</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>19.4947813985565</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5661902178689</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>302.7405549972536</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>13.36289688242618</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>147.885191037193</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1356495203149</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>63.93132299131052</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H43" t="n">
         <v>150.9549450363038</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>107.6478832032705</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.9686705428615</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>231.935127539262</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>15.47405635850879</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>112.1991807172662</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>280.0392708019887</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.2867185889705</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>147.885191037193</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1356495203149</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>130.8593057033494</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.9549450363038</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T46" t="n">
         <v>231.935127539262</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5661902178689</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>33.22416834056553</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>996.0635655468427</v>
+        <v>1741.32941612088</v>
       </c>
       <c r="C2" t="n">
-        <v>996.0635655468427</v>
+        <v>1741.32941612088</v>
       </c>
       <c r="D2" t="n">
-        <v>610.6224367635104</v>
+        <v>1741.32941612088</v>
       </c>
       <c r="E2" t="n">
-        <v>610.6224367635104</v>
+        <v>1338.745891237424</v>
       </c>
       <c r="F2" t="n">
-        <v>193.7279982934883</v>
+        <v>921.8514527674017</v>
       </c>
       <c r="G2" t="n">
-        <v>184.6056468218955</v>
+        <v>508.6886972554049</v>
       </c>
       <c r="H2" t="n">
         <v>184.6056468218955</v>
@@ -4333,19 +4333,19 @@
         <v>190.9183028231884</v>
       </c>
       <c r="K2" t="n">
-        <v>213.2609680449744</v>
+        <v>549.9006588506503</v>
       </c>
       <c r="L2" t="n">
-        <v>706.5812597635032</v>
+        <v>1043.220950569179</v>
       </c>
       <c r="M2" t="n">
-        <v>1252.582159808084</v>
+        <v>1589.22185061376</v>
       </c>
       <c r="N2" t="n">
-        <v>1780.393443445546</v>
+        <v>2117.033134251222</v>
       </c>
       <c r="O2" t="n">
-        <v>1780.393443445546</v>
+        <v>2128.580935577068</v>
       </c>
       <c r="P2" t="n">
         <v>2128.580935577068</v>
@@ -4354,28 +4354,28 @@
         <v>2313.426495718016</v>
       </c>
       <c r="R2" t="n">
-        <v>2313.426495718016</v>
+        <v>2275.433582003538</v>
       </c>
       <c r="S2" t="n">
-        <v>2146.912940659067</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="T2" t="n">
-        <v>2146.912940659067</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="U2" t="n">
-        <v>2146.912940659067</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="V2" t="n">
-        <v>1804.806131362585</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="W2" t="n">
-        <v>1793.049020337638</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="X2" t="n">
-        <v>1793.049020337638</v>
+        <v>1741.32941612088</v>
       </c>
       <c r="Y2" t="n">
-        <v>1396.55831125824</v>
+        <v>1741.32941612088</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845.6345130543913</v>
+        <v>794.4569438824112</v>
       </c>
       <c r="C3" t="n">
-        <v>694.9802826144835</v>
+        <v>643.8027134425034</v>
       </c>
       <c r="D3" t="n">
-        <v>564.8913152359638</v>
+        <v>513.7137460639838</v>
       </c>
       <c r="E3" t="n">
-        <v>428.4448243468515</v>
+        <v>377.2672551748715</v>
       </c>
       <c r="F3" t="n">
-        <v>304.0130182299833</v>
+        <v>252.8354490580033</v>
       </c>
       <c r="G3" t="n">
-        <v>183.9532003018478</v>
+        <v>132.7756311298677</v>
       </c>
       <c r="H3" t="n">
         <v>95.65578390244873</v>
@@ -4409,16 +4409,16 @@
         <v>46.26852991436032</v>
       </c>
       <c r="J3" t="n">
-        <v>159.3835121340877</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="K3" t="n">
-        <v>159.3835121340877</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="L3" t="n">
-        <v>642.9495980324009</v>
+        <v>529.8346158126735</v>
       </c>
       <c r="M3" t="n">
-        <v>1156.919752855747</v>
+        <v>1102.407673502883</v>
       </c>
       <c r="N3" t="n">
         <v>1156.919752855747</v>
@@ -4448,13 +4448,13 @@
         <v>1544.991818764567</v>
       </c>
       <c r="W3" t="n">
-        <v>1366.052142069834</v>
+        <v>1314.874572897854</v>
       </c>
       <c r="X3" t="n">
-        <v>1176.745064419845</v>
+        <v>1125.567495247865</v>
       </c>
       <c r="Y3" t="n">
-        <v>997.4308474953526</v>
+        <v>946.2532783233726</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.64680008825837</v>
+        <v>853.2455617742353</v>
       </c>
       <c r="C4" t="n">
-        <v>76.64680008825837</v>
+        <v>683.0404438402245</v>
       </c>
       <c r="D4" t="n">
-        <v>76.64680008825837</v>
+        <v>527.4073307427393</v>
       </c>
       <c r="E4" t="n">
-        <v>76.64680008825837</v>
+        <v>371.8485186019418</v>
       </c>
       <c r="F4" t="n">
-        <v>76.64680008825837</v>
+        <v>214.5225838149148</v>
       </c>
       <c r="G4" t="n">
-        <v>76.64680008825837</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="H4" t="n">
-        <v>76.64680008825837</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="I4" t="n">
-        <v>76.64680008825837</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="J4" t="n">
         <v>46.26852991436032</v>
@@ -4512,28 +4512,28 @@
         <v>947.7155524559126</v>
       </c>
       <c r="R4" t="n">
-        <v>823.8145630884896</v>
+        <v>947.7155524559126</v>
       </c>
       <c r="S4" t="n">
-        <v>823.8145630884896</v>
+        <v>853.2455617742353</v>
       </c>
       <c r="T4" t="n">
-        <v>628.0649370255333</v>
+        <v>853.2455617742353</v>
       </c>
       <c r="U4" t="n">
-        <v>342.6261452674341</v>
+        <v>853.2455617742353</v>
       </c>
       <c r="V4" t="n">
-        <v>76.64680008825837</v>
+        <v>853.2455617742353</v>
       </c>
       <c r="W4" t="n">
-        <v>76.64680008825837</v>
+        <v>853.2455617742353</v>
       </c>
       <c r="X4" t="n">
-        <v>76.64680008825837</v>
+        <v>853.2455617742353</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.64680008825837</v>
+        <v>853.2455617742353</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1923.412338218483</v>
+        <v>295.7302024897359</v>
       </c>
       <c r="C5" t="n">
-        <v>1923.412338218483</v>
+        <v>295.7302024897359</v>
       </c>
       <c r="D5" t="n">
-        <v>1537.971209435151</v>
+        <v>295.7302024897359</v>
       </c>
       <c r="E5" t="n">
-        <v>1135.387684551696</v>
+        <v>295.7302024897359</v>
       </c>
       <c r="F5" t="n">
-        <v>718.4932460816734</v>
+        <v>193.7279982934883</v>
       </c>
       <c r="G5" t="n">
-        <v>305.3304905696766</v>
+        <v>184.6056468218955</v>
       </c>
       <c r="H5" t="n">
-        <v>46.26852991436032</v>
+        <v>184.6056468218955</v>
       </c>
       <c r="I5" t="n">
         <v>46.26852991436032</v>
@@ -4573,46 +4573,46 @@
         <v>190.9183028231884</v>
       </c>
       <c r="L5" t="n">
-        <v>684.2385945417172</v>
+        <v>266.5416588711746</v>
       </c>
       <c r="M5" t="n">
-        <v>1230.239494586298</v>
+        <v>812.5425589157552</v>
       </c>
       <c r="N5" t="n">
-        <v>1758.05077822376</v>
+        <v>1340.353842553217</v>
       </c>
       <c r="O5" t="n">
-        <v>2198.090379116089</v>
+        <v>1780.393443445546</v>
       </c>
       <c r="P5" t="n">
-        <v>2198.090379116089</v>
+        <v>2128.580935577068</v>
       </c>
       <c r="Q5" t="n">
         <v>2313.426495718016</v>
       </c>
       <c r="R5" t="n">
-        <v>2313.426495718016</v>
+        <v>2275.433582003538</v>
       </c>
       <c r="S5" t="n">
-        <v>2146.912940659067</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="T5" t="n">
-        <v>1923.412338218483</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="U5" t="n">
-        <v>1923.412338218483</v>
+        <v>1853.167297379187</v>
       </c>
       <c r="V5" t="n">
-        <v>1923.412338218483</v>
+        <v>1853.167297379187</v>
       </c>
       <c r="W5" t="n">
-        <v>1923.412338218483</v>
+        <v>1482.168262347475</v>
       </c>
       <c r="X5" t="n">
-        <v>1923.412338218483</v>
+        <v>1092.715657280532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.412338218483</v>
+        <v>696.2249482011327</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>46.26852991436032</v>
       </c>
       <c r="J6" t="n">
-        <v>46.26852991436032</v>
+        <v>159.3835121340877</v>
       </c>
       <c r="K6" t="n">
-        <v>168.194011848304</v>
+        <v>479.1226581963141</v>
       </c>
       <c r="L6" t="n">
-        <v>651.7600977466172</v>
+        <v>479.1226581963141</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.333155436826</v>
+        <v>1051.695715886523</v>
       </c>
       <c r="N6" t="n">
-        <v>1796.906213127035</v>
+        <v>1156.919752855747</v>
       </c>
       <c r="O6" t="n">
-        <v>2313.426495718016</v>
+        <v>1673.440035446728</v>
       </c>
       <c r="P6" t="n">
-        <v>2313.426495718016</v>
+        <v>2079.061404163126</v>
       </c>
       <c r="Q6" t="n">
         <v>2313.426495718016</v>
@@ -4685,10 +4685,10 @@
         <v>1544.991818764567</v>
       </c>
       <c r="W6" t="n">
-        <v>1366.052142069834</v>
+        <v>1314.874572897854</v>
       </c>
       <c r="X6" t="n">
-        <v>1176.745064419845</v>
+        <v>1125.567495247865</v>
       </c>
       <c r="Y6" t="n">
         <v>997.4308474953526</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.5075337646114</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="C7" t="n">
-        <v>762.5075337646114</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="D7" t="n">
-        <v>762.5075337646114</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="E7" t="n">
-        <v>690.799765177268</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="F7" t="n">
-        <v>533.473830390241</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="G7" t="n">
-        <v>365.2197764896865</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="H7" t="n">
-        <v>209.7412254511805</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="I7" t="n">
-        <v>76.64680008825837</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="J7" t="n">
         <v>46.26852991436032</v>
@@ -4752,25 +4752,25 @@
         <v>947.7155524559126</v>
       </c>
       <c r="S7" t="n">
-        <v>947.7155524559126</v>
+        <v>744.8994686384619</v>
       </c>
       <c r="T7" t="n">
-        <v>947.7155524559126</v>
+        <v>509.180416806696</v>
       </c>
       <c r="U7" t="n">
-        <v>947.7155524559126</v>
+        <v>312.2478750935361</v>
       </c>
       <c r="V7" t="n">
-        <v>947.7155524559126</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="W7" t="n">
-        <v>947.7155524559126</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="X7" t="n">
-        <v>947.7155524559126</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="Y7" t="n">
-        <v>947.7155524559126</v>
+        <v>46.26852991436032</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1802.687494470702</v>
+        <v>1885.419424504005</v>
       </c>
       <c r="C8" t="n">
-        <v>1802.687494470702</v>
+        <v>1492.243923006936</v>
       </c>
       <c r="D8" t="n">
-        <v>1417.24636568737</v>
+        <v>1106.802794223604</v>
       </c>
       <c r="E8" t="n">
-        <v>1014.662840803915</v>
+        <v>1106.802794223604</v>
       </c>
       <c r="F8" t="n">
-        <v>597.7684023338924</v>
+        <v>689.9083557535813</v>
       </c>
       <c r="G8" t="n">
-        <v>184.6056468218955</v>
+        <v>276.7456002415844</v>
       </c>
       <c r="H8" t="n">
         <v>184.6056468218955</v>
@@ -4816,10 +4816,10 @@
         <v>1589.22185061376</v>
       </c>
       <c r="N8" t="n">
-        <v>2117.033134251222</v>
+        <v>1965.239003586494</v>
       </c>
       <c r="O8" t="n">
-        <v>2117.033134251222</v>
+        <v>1965.239003586494</v>
       </c>
       <c r="P8" t="n">
         <v>2313.426495718016</v>
@@ -4828,28 +4828,28 @@
         <v>2313.426495718016</v>
       </c>
       <c r="R8" t="n">
-        <v>2313.426495718016</v>
+        <v>2275.433582003538</v>
       </c>
       <c r="S8" t="n">
-        <v>2313.426495718016</v>
+        <v>2108.920026944589</v>
       </c>
       <c r="T8" t="n">
-        <v>2313.426495718016</v>
+        <v>1885.419424504005</v>
       </c>
       <c r="U8" t="n">
-        <v>2057.673766152615</v>
+        <v>1885.419424504005</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.673766152615</v>
+        <v>1885.419424504005</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.673766152615</v>
+        <v>1885.419424504005</v>
       </c>
       <c r="X8" t="n">
-        <v>1802.687494470702</v>
+        <v>1885.419424504005</v>
       </c>
       <c r="Y8" t="n">
-        <v>1802.687494470702</v>
+        <v>1885.419424504005</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>46.26852991436032</v>
       </c>
       <c r="J9" t="n">
-        <v>46.26852991436032</v>
+        <v>159.3835121340877</v>
       </c>
       <c r="K9" t="n">
-        <v>46.26852991436032</v>
+        <v>479.1226581963141</v>
       </c>
       <c r="L9" t="n">
-        <v>246.1387290302196</v>
+        <v>962.6887440946274</v>
       </c>
       <c r="M9" t="n">
-        <v>818.7117867204286</v>
+        <v>1535.261801784836</v>
       </c>
       <c r="N9" t="n">
-        <v>1391.284844410638</v>
+        <v>1562.541121572145</v>
       </c>
       <c r="O9" t="n">
-        <v>1907.805127001619</v>
+        <v>2079.061404163126</v>
       </c>
       <c r="P9" t="n">
-        <v>2313.426495718016</v>
+        <v>2079.061404163126</v>
       </c>
       <c r="Q9" t="n">
         <v>2313.426495718016</v>
@@ -4919,10 +4919,10 @@
         <v>1767.5318203935</v>
       </c>
       <c r="V9" t="n">
-        <v>1596.169387936547</v>
+        <v>1544.991818764567</v>
       </c>
       <c r="W9" t="n">
-        <v>1366.052142069834</v>
+        <v>1314.874572897854</v>
       </c>
       <c r="X9" t="n">
         <v>1176.745064419845</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>711.9965006241467</v>
+        <v>713.2641519551435</v>
       </c>
       <c r="C10" t="n">
-        <v>711.9965006241467</v>
+        <v>713.2641519551435</v>
       </c>
       <c r="D10" t="n">
-        <v>556.3633875266614</v>
+        <v>713.2641519551435</v>
       </c>
       <c r="E10" t="n">
-        <v>402.2267887758399</v>
+        <v>557.705339814346</v>
       </c>
       <c r="F10" t="n">
-        <v>244.9008539888128</v>
+        <v>400.3794050273189</v>
       </c>
       <c r="G10" t="n">
-        <v>76.64680008825837</v>
+        <v>232.1253511267644</v>
       </c>
       <c r="H10" t="n">
         <v>76.64680008825837</v>
@@ -4986,28 +4986,28 @@
         <v>947.7155524559126</v>
       </c>
       <c r="R10" t="n">
-        <v>947.7155524559126</v>
+        <v>823.8145630884896</v>
       </c>
       <c r="S10" t="n">
-        <v>947.7155524559126</v>
+        <v>823.8145630884896</v>
       </c>
       <c r="T10" t="n">
-        <v>711.9965006241467</v>
+        <v>823.8145630884896</v>
       </c>
       <c r="U10" t="n">
-        <v>711.9965006241467</v>
+        <v>823.8145630884896</v>
       </c>
       <c r="V10" t="n">
-        <v>711.9965006241467</v>
+        <v>823.8145630884896</v>
       </c>
       <c r="W10" t="n">
-        <v>711.9965006241467</v>
+        <v>823.8145630884896</v>
       </c>
       <c r="X10" t="n">
-        <v>711.9965006241467</v>
+        <v>713.2641519551435</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.9965006241467</v>
+        <v>713.2641519551435</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1543.851046179332</v>
+        <v>984.9221826987451</v>
       </c>
       <c r="C11" t="n">
-        <v>1150.675544682262</v>
+        <v>984.9221826987451</v>
       </c>
       <c r="D11" t="n">
-        <v>765.2344158989298</v>
+        <v>984.9221826987451</v>
       </c>
       <c r="E11" t="n">
-        <v>362.6508910154743</v>
+        <v>984.9221826987451</v>
       </c>
       <c r="F11" t="n">
-        <v>362.6508910154743</v>
+        <v>568.0277442287229</v>
       </c>
       <c r="G11" t="n">
-        <v>362.6508910154743</v>
+        <v>155.616917371177</v>
       </c>
       <c r="H11" t="n">
-        <v>46.26852991436032</v>
+        <v>155.616917371177</v>
       </c>
       <c r="I11" t="n">
         <v>46.26852991436032</v>
@@ -5044,22 +5044,22 @@
         <v>46.26852991436032</v>
       </c>
       <c r="K11" t="n">
-        <v>46.26852991436032</v>
+        <v>498.995632443317</v>
       </c>
       <c r="L11" t="n">
-        <v>618.8415876045693</v>
+        <v>498.995632443317</v>
       </c>
       <c r="M11" t="n">
-        <v>1191.414645294778</v>
+        <v>498.995632443317</v>
       </c>
       <c r="N11" t="n">
-        <v>1740.159996802095</v>
+        <v>1021.566458131925</v>
       </c>
       <c r="O11" t="n">
-        <v>2304.369955542394</v>
+        <v>1585.776416872224</v>
       </c>
       <c r="P11" t="n">
-        <v>2304.369955542394</v>
+        <v>2039.940436644228</v>
       </c>
       <c r="Q11" t="n">
         <v>2304.369955542394</v>
@@ -5068,25 +5068,25 @@
         <v>2313.426495718016</v>
       </c>
       <c r="S11" t="n">
-        <v>2313.426495718016</v>
+        <v>2232.317573470624</v>
       </c>
       <c r="T11" t="n">
-        <v>2313.426495718016</v>
+        <v>2012.1085387149</v>
       </c>
       <c r="U11" t="n">
-        <v>2057.733920444971</v>
+        <v>1756.415963441855</v>
       </c>
       <c r="V11" t="n">
-        <v>2057.733920444971</v>
+        <v>1756.415963441855</v>
       </c>
       <c r="W11" t="n">
-        <v>2057.733920444971</v>
+        <v>1385.416928410142</v>
       </c>
       <c r="X11" t="n">
-        <v>2057.733920444971</v>
+        <v>1385.416928410142</v>
       </c>
       <c r="Y11" t="n">
-        <v>1944.345791890729</v>
+        <v>1385.416928410142</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>827.4949436324187</v>
+        <v>827.4949436324182</v>
       </c>
       <c r="C12" t="n">
-        <v>676.8407131925107</v>
+        <v>676.8407131925103</v>
       </c>
       <c r="D12" t="n">
-        <v>546.751745813991</v>
+        <v>546.7517458139907</v>
       </c>
       <c r="E12" t="n">
-        <v>410.3052549248787</v>
+        <v>410.3052549248785</v>
       </c>
       <c r="F12" t="n">
-        <v>285.8734488080104</v>
+        <v>285.8734488080102</v>
       </c>
       <c r="G12" t="n">
-        <v>166.2159481783389</v>
+        <v>166.2159481783385</v>
       </c>
       <c r="H12" t="n">
-        <v>81.8040698983157</v>
+        <v>81.80406989831545</v>
       </c>
       <c r="I12" t="n">
         <v>46.26852991436032</v>
@@ -5126,22 +5126,22 @@
         <v>46.26852991436032</v>
       </c>
       <c r="L12" t="n">
-        <v>114.7898120942866</v>
+        <v>615.4502964049399</v>
       </c>
       <c r="M12" t="n">
-        <v>687.3628697844956</v>
+        <v>956.161195524355</v>
       </c>
       <c r="N12" t="n">
-        <v>1259.935927474705</v>
+        <v>974.1965709624669</v>
       </c>
       <c r="O12" t="n">
-        <v>1832.508985164914</v>
+        <v>1546.769628652676</v>
       </c>
       <c r="P12" t="n">
-        <v>2313.426495718016</v>
+        <v>2027.687139205779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2313.426495718016</v>
+        <v>2312.38570753993</v>
       </c>
       <c r="R12" t="n">
         <v>2313.426495718016</v>
@@ -5162,10 +5162,10 @@
         <v>1347.912572647861</v>
       </c>
       <c r="X12" t="n">
-        <v>1158.605494997873</v>
+        <v>1158.605494997872</v>
       </c>
       <c r="Y12" t="n">
-        <v>979.29127807338</v>
+        <v>979.2912780733795</v>
       </c>
     </row>
     <row r="13">
@@ -5226,25 +5226,25 @@
         <v>1252.066006536816</v>
       </c>
       <c r="S13" t="n">
-        <v>1252.066006536816</v>
+        <v>1055.12795548342</v>
       </c>
       <c r="T13" t="n">
-        <v>1017.788099931501</v>
+        <v>1055.12795548342</v>
       </c>
       <c r="U13" t="n">
-        <v>732.3677057720372</v>
+        <v>769.707561323957</v>
       </c>
       <c r="V13" t="n">
-        <v>466.3883605928614</v>
+        <v>769.707561323957</v>
       </c>
       <c r="W13" t="n">
-        <v>183.0579585240391</v>
+        <v>688.6689320060352</v>
       </c>
       <c r="X13" t="n">
-        <v>183.0579585240391</v>
+        <v>454.5886097890183</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.26852991436032</v>
+        <v>231.4765486056616</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1527.483181571674</v>
+        <v>1261.014924025261</v>
       </c>
       <c r="C14" t="n">
-        <v>1134.307680074605</v>
+        <v>1261.014924025261</v>
       </c>
       <c r="D14" t="n">
-        <v>1134.307680074605</v>
+        <v>875.5737952419286</v>
       </c>
       <c r="E14" t="n">
-        <v>1134.307680074605</v>
+        <v>875.5737952419286</v>
       </c>
       <c r="F14" t="n">
-        <v>717.4132416045824</v>
+        <v>458.6793567719063</v>
       </c>
       <c r="G14" t="n">
-        <v>305.0024147470364</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="H14" t="n">
         <v>46.26852991436032</v>
@@ -5278,28 +5278,28 @@
         <v>46.26852991436032</v>
       </c>
       <c r="J14" t="n">
-        <v>46.26852991436032</v>
+        <v>253.4673092666404</v>
       </c>
       <c r="K14" t="n">
-        <v>46.26852991436032</v>
+        <v>706.194411795597</v>
       </c>
       <c r="L14" t="n">
-        <v>618.8415876045693</v>
+        <v>1278.767469485806</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.586939111886</v>
+        <v>1295.052517205713</v>
       </c>
       <c r="N14" t="n">
-        <v>1740.159996802095</v>
+        <v>1295.052517205713</v>
       </c>
       <c r="O14" t="n">
-        <v>2304.369955542394</v>
+        <v>1859.262475946011</v>
       </c>
       <c r="P14" t="n">
-        <v>2304.369955542394</v>
+        <v>2313.426495718016</v>
       </c>
       <c r="Q14" t="n">
-        <v>2304.369955542394</v>
+        <v>2313.426495718016</v>
       </c>
       <c r="R14" t="n">
         <v>2313.426495718016</v>
@@ -5314,16 +5314,16 @@
         <v>2313.426495718016</v>
       </c>
       <c r="V14" t="n">
-        <v>2313.426495718016</v>
+        <v>2028.504668136372</v>
       </c>
       <c r="W14" t="n">
-        <v>2313.426495718016</v>
+        <v>1657.50563310466</v>
       </c>
       <c r="X14" t="n">
-        <v>1923.973890651073</v>
+        <v>1657.50563310466</v>
       </c>
       <c r="Y14" t="n">
-        <v>1527.483181571674</v>
+        <v>1261.014924025261</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>46.26852991436032</v>
       </c>
       <c r="J15" t="n">
-        <v>46.26852991436032</v>
+        <v>196.6372718682157</v>
       </c>
       <c r="K15" t="n">
-        <v>46.26852991436032</v>
+        <v>196.6372718682157</v>
       </c>
       <c r="L15" t="n">
-        <v>46.26852991436032</v>
+        <v>196.6372718682157</v>
       </c>
       <c r="M15" t="n">
-        <v>618.8415876045693</v>
+        <v>769.2103295584247</v>
       </c>
       <c r="N15" t="n">
-        <v>1191.414645294778</v>
+        <v>1341.783387248634</v>
       </c>
       <c r="O15" t="n">
-        <v>1763.987702984987</v>
+        <v>1914.356444938843</v>
       </c>
       <c r="P15" t="n">
-        <v>2244.90521353809</v>
+        <v>2027.687139205779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2313.426495718016</v>
+        <v>2312.38570753993</v>
       </c>
       <c r="R15" t="n">
         <v>2313.426495718016</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.8636541756571</v>
+        <v>194.2238039459976</v>
       </c>
       <c r="C16" t="n">
-        <v>634.6585362416463</v>
+        <v>194.2238039459976</v>
       </c>
       <c r="D16" t="n">
-        <v>479.025423144161</v>
+        <v>194.2238039459976</v>
       </c>
       <c r="E16" t="n">
-        <v>479.025423144161</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="F16" t="n">
-        <v>321.699488357134</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="G16" t="n">
-        <v>321.699488357134</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="H16" t="n">
-        <v>169.2197458962211</v>
+        <v>46.26852991436032</v>
       </c>
       <c r="I16" t="n">
         <v>46.26852991436032</v>
@@ -5469,19 +5469,19 @@
         <v>1252.066006536816</v>
       </c>
       <c r="U16" t="n">
-        <v>1252.066006536816</v>
+        <v>966.6456123773523</v>
       </c>
       <c r="V16" t="n">
-        <v>1252.066006536816</v>
+        <v>700.6662671981766</v>
       </c>
       <c r="W16" t="n">
-        <v>990.0716728669584</v>
+        <v>417.3358651293542</v>
       </c>
       <c r="X16" t="n">
-        <v>990.0716728669584</v>
+        <v>417.3358651293542</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.0716728669584</v>
+        <v>194.2238039459976</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1806.190964663056</v>
+        <v>1926.710025562568</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.190964663056</v>
+        <v>1533.534524065499</v>
       </c>
       <c r="D17" t="n">
-        <v>1420.749835879723</v>
+        <v>1320.237758510815</v>
       </c>
       <c r="E17" t="n">
-        <v>1018.166310996268</v>
+        <v>917.6542336273596</v>
       </c>
       <c r="F17" t="n">
-        <v>601.2718725262457</v>
+        <v>917.6542336273596</v>
       </c>
       <c r="G17" t="n">
-        <v>188.8610456686997</v>
+        <v>505.2434067698137</v>
       </c>
       <c r="H17" t="n">
         <v>188.8610456686997</v>
       </c>
       <c r="I17" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J17" t="n">
         <v>286.7114375641631</v>
       </c>
       <c r="K17" t="n">
-        <v>739.4385400931199</v>
+        <v>739.4385400931209</v>
       </c>
       <c r="L17" t="n">
-        <v>1349.057479324278</v>
+        <v>1349.057479324279</v>
       </c>
       <c r="M17" t="n">
-        <v>2024.463033077028</v>
+        <v>2024.46303307703</v>
       </c>
       <c r="N17" t="n">
-        <v>2683.772873008058</v>
+        <v>2683.77287300806</v>
       </c>
       <c r="O17" t="n">
         <v>3247.982831748358</v>
       </c>
       <c r="P17" t="n">
-        <v>3702.146851520362</v>
+        <v>3702.146851520363</v>
       </c>
       <c r="Q17" t="n">
         <v>3966.576370418528</v>
       </c>
       <c r="R17" t="n">
-        <v>3975.63291059415</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="S17" t="n">
         <v>3826.253929748501</v>
@@ -5548,19 +5548,19 @@
         <v>3826.253929748501</v>
       </c>
       <c r="U17" t="n">
-        <v>3705.734868848989</v>
+        <v>3826.253929748501</v>
       </c>
       <c r="V17" t="n">
-        <v>3363.628059552507</v>
+        <v>3484.14712045202</v>
       </c>
       <c r="W17" t="n">
-        <v>2992.629024520795</v>
+        <v>3113.148085420307</v>
       </c>
       <c r="X17" t="n">
-        <v>2603.176419453851</v>
+        <v>2723.695480353364</v>
       </c>
       <c r="Y17" t="n">
-        <v>2206.685710374452</v>
+        <v>2327.204771273965</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>115.0481981958384</v>
       </c>
       <c r="I18" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J18" t="n">
-        <v>79.51265821188301</v>
+        <v>229.8814001657384</v>
       </c>
       <c r="K18" t="n">
-        <v>79.51265821188301</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L18" t="n">
-        <v>648.6944247024626</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.380793983213</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N18" t="n">
-        <v>1255.416169421325</v>
+        <v>1208.956507425417</v>
       </c>
       <c r="O18" t="n">
-        <v>1865.753113462436</v>
+        <v>1581.054545128285</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.670624015539</v>
+        <v>2061.972055681387</v>
       </c>
       <c r="Q18" t="n">
         <v>2346.670624015539</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>405.350889243379</v>
+        <v>562.1384062547893</v>
       </c>
       <c r="C19" t="n">
-        <v>235.1457713093683</v>
+        <v>560.3141697319438</v>
       </c>
       <c r="D19" t="n">
-        <v>79.51265821188301</v>
+        <v>560.3141697319438</v>
       </c>
       <c r="E19" t="n">
-        <v>79.51265821188301</v>
+        <v>404.7553575911463</v>
       </c>
       <c r="F19" t="n">
-        <v>79.51265821188301</v>
+        <v>247.4294228041193</v>
       </c>
       <c r="G19" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="H19" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="I19" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J19" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="K19" t="n">
         <v>199.7547654021616</v>
@@ -5706,19 +5706,19 @@
         <v>1285.310134834339</v>
       </c>
       <c r="U19" t="n">
-        <v>999.8897406748752</v>
+        <v>1285.310134834339</v>
       </c>
       <c r="V19" t="n">
-        <v>733.9103954956994</v>
+        <v>1019.330789655163</v>
       </c>
       <c r="W19" t="n">
-        <v>628.4629504267357</v>
+        <v>1019.330789655163</v>
       </c>
       <c r="X19" t="n">
-        <v>628.4629504267357</v>
+        <v>785.250467438146</v>
       </c>
       <c r="Y19" t="n">
-        <v>405.350889243379</v>
+        <v>562.1384062547893</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2130.307698477907</v>
+        <v>2402.576864652948</v>
       </c>
       <c r="C20" t="n">
-        <v>1737.132196980837</v>
+        <v>2013.224938307353</v>
       </c>
       <c r="D20" t="n">
-        <v>1737.132196980837</v>
+        <v>1627.783809524021</v>
       </c>
       <c r="E20" t="n">
-        <v>1334.548672097382</v>
+        <v>1225.200284640565</v>
       </c>
       <c r="F20" t="n">
-        <v>917.6542336273596</v>
+        <v>808.305846170543</v>
       </c>
       <c r="G20" t="n">
-        <v>505.2434067698137</v>
+        <v>395.895019312997</v>
       </c>
       <c r="H20" t="n">
-        <v>188.8610456686997</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="I20" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J20" t="n">
-        <v>286.711437564163</v>
+        <v>286.7114375641631</v>
       </c>
       <c r="K20" t="n">
-        <v>739.4385400931197</v>
+        <v>739.4385400931209</v>
       </c>
       <c r="L20" t="n">
-        <v>1349.057479324278</v>
+        <v>1349.057479324279</v>
       </c>
       <c r="M20" t="n">
-        <v>2024.463033077029</v>
+        <v>2024.46303307703</v>
       </c>
       <c r="N20" t="n">
-        <v>2683.772873008059</v>
+        <v>2683.77287300806</v>
       </c>
       <c r="O20" t="n">
         <v>3247.982831748358</v>
       </c>
       <c r="P20" t="n">
-        <v>3702.146851520362</v>
+        <v>3702.146851520363</v>
       </c>
       <c r="Q20" t="n">
-        <v>3966.576370418527</v>
+        <v>3966.576370418528</v>
       </c>
       <c r="R20" t="n">
-        <v>3975.63291059415</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="S20" t="n">
-        <v>3826.2539297485</v>
+        <v>3826.253929748501</v>
       </c>
       <c r="T20" t="n">
-        <v>3606.044894992776</v>
+        <v>3826.253929748501</v>
       </c>
       <c r="U20" t="n">
-        <v>3350.352319719731</v>
+        <v>3570.561354475456</v>
       </c>
       <c r="V20" t="n">
-        <v>3008.245510423249</v>
+        <v>3570.561354475456</v>
       </c>
       <c r="W20" t="n">
-        <v>3008.245510423249</v>
+        <v>3199.562319443743</v>
       </c>
       <c r="X20" t="n">
-        <v>2618.792905356306</v>
+        <v>3199.562319443743</v>
       </c>
       <c r="Y20" t="n">
-        <v>2222.302196276907</v>
+        <v>2803.071610364344</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2489.701358508551</v>
+        <v>860.739071929941</v>
       </c>
       <c r="C21" t="n">
-        <v>2339.047128068644</v>
+        <v>710.0848414900332</v>
       </c>
       <c r="D21" t="n">
-        <v>2208.958160690124</v>
+        <v>579.9958741115136</v>
       </c>
       <c r="E21" t="n">
-        <v>2072.511669801012</v>
+        <v>443.5493832224013</v>
       </c>
       <c r="F21" t="n">
-        <v>1948.079863684144</v>
+        <v>319.1175771055331</v>
       </c>
       <c r="G21" t="n">
-        <v>1828.422363054472</v>
+        <v>199.4600764758616</v>
       </c>
       <c r="H21" t="n">
-        <v>1744.010484774449</v>
+        <v>115.0481981958384</v>
       </c>
       <c r="I21" t="n">
-        <v>1708.474944790494</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J21" t="n">
-        <v>1858.843686744349</v>
+        <v>229.8814001657384</v>
       </c>
       <c r="K21" t="n">
-        <v>2242.255441883749</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L21" t="n">
-        <v>2811.437208374328</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M21" t="n">
-        <v>3474.624046452805</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N21" t="n">
-        <v>3492.659421890918</v>
+        <v>1208.956507425417</v>
       </c>
       <c r="O21" t="n">
-        <v>3494.715400041047</v>
+        <v>1580.013756950199</v>
       </c>
       <c r="P21" t="n">
-        <v>3975.63291059415</v>
+        <v>2060.931267503301</v>
       </c>
       <c r="Q21" t="n">
-        <v>3975.63291059415</v>
+        <v>2345.629835837452</v>
       </c>
       <c r="R21" t="n">
-        <v>3975.63291059415</v>
+        <v>2346.670624015539</v>
       </c>
       <c r="S21" t="n">
-        <v>3848.175100858032</v>
+        <v>2219.21281427942</v>
       </c>
       <c r="T21" t="n">
-        <v>3672.812910097679</v>
+        <v>2043.850623519068</v>
       </c>
       <c r="U21" t="n">
-        <v>3462.776235019641</v>
+        <v>1833.813948441029</v>
       </c>
       <c r="V21" t="n">
-        <v>3240.236233390708</v>
+        <v>1611.273946812096</v>
       </c>
       <c r="W21" t="n">
-        <v>3010.118987523994</v>
+        <v>1381.156700945383</v>
       </c>
       <c r="X21" t="n">
-        <v>2820.811909874006</v>
+        <v>1191.849623295395</v>
       </c>
       <c r="Y21" t="n">
-        <v>2641.497692949513</v>
+        <v>1012.535406370902</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1045.164059300151</v>
+        <v>557.7563307476042</v>
       </c>
       <c r="C22" t="n">
-        <v>874.9589413661402</v>
+        <v>387.5512128135935</v>
       </c>
       <c r="D22" t="n">
-        <v>719.325828268655</v>
+        <v>387.5512128135935</v>
       </c>
       <c r="E22" t="n">
-        <v>563.7670161278575</v>
+        <v>231.992400672796</v>
       </c>
       <c r="F22" t="n">
-        <v>406.4410813408304</v>
+        <v>231.992400672796</v>
       </c>
       <c r="G22" t="n">
-        <v>238.5243167485942</v>
+        <v>231.992400672796</v>
       </c>
       <c r="H22" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="I22" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J22" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="K22" t="n">
         <v>199.7547654021616</v>
@@ -5934,28 +5934,28 @@
         <v>1285.310134834339</v>
       </c>
       <c r="R22" t="n">
-        <v>1285.310134834339</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="S22" t="n">
-        <v>1279.441965905466</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="T22" t="n">
-        <v>1045.164059300151</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="U22" t="n">
-        <v>1045.164059300151</v>
+        <v>891.154505116016</v>
       </c>
       <c r="V22" t="n">
-        <v>1045.164059300151</v>
+        <v>891.154505116016</v>
       </c>
       <c r="W22" t="n">
-        <v>1045.164059300151</v>
+        <v>891.154505116016</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.164059300151</v>
+        <v>742.9643494389055</v>
       </c>
       <c r="Y22" t="n">
-        <v>1045.164059300151</v>
+        <v>742.9643494389055</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2199.366466160125</v>
+        <v>2406.400439804423</v>
       </c>
       <c r="C23" t="n">
-        <v>1806.190964663056</v>
+        <v>2013.224938307353</v>
       </c>
       <c r="D23" t="n">
-        <v>1420.749835879723</v>
+        <v>1627.783809524021</v>
       </c>
       <c r="E23" t="n">
-        <v>1018.166310996268</v>
+        <v>1225.200284640565</v>
       </c>
       <c r="F23" t="n">
-        <v>601.2718725262457</v>
+        <v>808.305846170543</v>
       </c>
       <c r="G23" t="n">
-        <v>188.8610456686997</v>
+        <v>395.895019312997</v>
       </c>
       <c r="H23" t="n">
-        <v>188.8610456686997</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="I23" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J23" t="n">
         <v>286.7114375641631</v>
       </c>
       <c r="K23" t="n">
-        <v>739.4385400931199</v>
+        <v>739.4385400931196</v>
       </c>
       <c r="L23" t="n">
         <v>1349.057479324278</v>
       </c>
       <c r="M23" t="n">
-        <v>2024.463033077029</v>
+        <v>2024.463033077028</v>
       </c>
       <c r="N23" t="n">
-        <v>2683.772873008059</v>
+        <v>2683.772873008058</v>
       </c>
       <c r="O23" t="n">
-        <v>3247.982831748357</v>
+        <v>3247.982831748358</v>
       </c>
       <c r="P23" t="n">
         <v>3702.146851520362</v>
       </c>
       <c r="Q23" t="n">
-        <v>3966.576370418527</v>
+        <v>3966.576370418528</v>
       </c>
       <c r="R23" t="n">
-        <v>3975.63291059415</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="S23" t="n">
-        <v>3826.2539297485</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="T23" t="n">
-        <v>3606.044894992776</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="U23" t="n">
-        <v>3606.044894992776</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="V23" t="n">
-        <v>3385.804526017864</v>
+        <v>3633.526101297669</v>
       </c>
       <c r="W23" t="n">
-        <v>3385.804526017864</v>
+        <v>3262.527066265957</v>
       </c>
       <c r="X23" t="n">
-        <v>2996.351920950921</v>
+        <v>3203.385894595218</v>
       </c>
       <c r="Y23" t="n">
-        <v>2599.861211871522</v>
+        <v>2806.895185515819</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>115.0481981958384</v>
       </c>
       <c r="I24" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J24" t="n">
-        <v>79.51265821188301</v>
+        <v>229.8814001657384</v>
       </c>
       <c r="K24" t="n">
-        <v>79.51265821188301</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L24" t="n">
-        <v>648.6944247024626</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M24" t="n">
-        <v>1376.37553534955</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.333679974428</v>
+        <v>1208.956507425417</v>
       </c>
       <c r="O24" t="n">
-        <v>2346.670624015539</v>
+        <v>1580.013756950199</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.670624015539</v>
+        <v>2060.931267503301</v>
       </c>
       <c r="Q24" t="n">
-        <v>2346.670624015539</v>
+        <v>2345.629835837452</v>
       </c>
       <c r="R24" t="n">
         <v>2346.670624015539</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>117.4864191456876</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="C25" t="n">
-        <v>117.4864191456876</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="D25" t="n">
-        <v>117.4864191456876</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="E25" t="n">
-        <v>117.4864191456876</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="F25" t="n">
-        <v>117.4864191456876</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="G25" t="n">
-        <v>79.51265821188301</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="H25" t="n">
-        <v>79.51265821188301</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="I25" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J25" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="K25" t="n">
         <v>199.7547654021616</v>
@@ -6171,28 +6171,28 @@
         <v>1285.310134834339</v>
       </c>
       <c r="R25" t="n">
-        <v>1285.310134834339</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="S25" t="n">
-        <v>1088.372083780943</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="T25" t="n">
-        <v>854.0941771756281</v>
+        <v>942.2969926701644</v>
       </c>
       <c r="U25" t="n">
-        <v>568.6737830161646</v>
+        <v>656.8765985107009</v>
       </c>
       <c r="V25" t="n">
-        <v>302.6944378369889</v>
+        <v>656.8765985107009</v>
       </c>
       <c r="W25" t="n">
-        <v>302.6944378369889</v>
+        <v>373.5461964418785</v>
       </c>
       <c r="X25" t="n">
-        <v>302.6944378369889</v>
+        <v>373.5461964418785</v>
       </c>
       <c r="Y25" t="n">
-        <v>302.6944378369889</v>
+        <v>373.5461964418785</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1993.989612946876</v>
+        <v>1608.548484163544</v>
       </c>
       <c r="C26" t="n">
-        <v>1600.814111449807</v>
+        <v>1215.372982666475</v>
       </c>
       <c r="D26" t="n">
         <v>1215.372982666475</v>
       </c>
       <c r="E26" t="n">
-        <v>812.7894577830192</v>
+        <v>812.7894577830193</v>
       </c>
       <c r="F26" t="n">
         <v>395.895019312997</v>
@@ -6220,58 +6220,58 @@
         <v>395.895019312997</v>
       </c>
       <c r="H26" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="I26" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J26" t="n">
-        <v>286.7114375641631</v>
+        <v>286.7114375641636</v>
       </c>
       <c r="K26" t="n">
-        <v>739.4385400931199</v>
+        <v>739.4385400931201</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.057479324278</v>
+        <v>1349.057479324279</v>
       </c>
       <c r="M26" t="n">
-        <v>2024.463033077028</v>
+        <v>2024.463033077029</v>
       </c>
       <c r="N26" t="n">
-        <v>2683.772873008058</v>
+        <v>2683.772873008059</v>
       </c>
       <c r="O26" t="n">
-        <v>3247.982831748357</v>
+        <v>3247.982831748358</v>
       </c>
       <c r="P26" t="n">
-        <v>3702.146851520362</v>
+        <v>3702.146851520363</v>
       </c>
       <c r="Q26" t="n">
-        <v>3966.576370418527</v>
+        <v>3966.576370418528</v>
       </c>
       <c r="R26" t="n">
-        <v>3975.63291059415</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="S26" t="n">
-        <v>3826.2539297485</v>
+        <v>3975.632910594151</v>
       </c>
       <c r="T26" t="n">
-        <v>3606.044894992776</v>
+        <v>3763.784963622523</v>
       </c>
       <c r="U26" t="n">
-        <v>3606.044894992776</v>
+        <v>3508.092388349477</v>
       </c>
       <c r="V26" t="n">
-        <v>3551.426707836328</v>
+        <v>3165.985579052996</v>
       </c>
       <c r="W26" t="n">
-        <v>3180.427672804616</v>
+        <v>2794.986544021283</v>
       </c>
       <c r="X26" t="n">
-        <v>2790.975067737672</v>
+        <v>2405.53393895434</v>
       </c>
       <c r="Y26" t="n">
-        <v>2394.484358658273</v>
+        <v>2009.043229874941</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>115.0481981958384</v>
       </c>
       <c r="I27" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J27" t="n">
-        <v>79.51265821188301</v>
+        <v>229.8814001657384</v>
       </c>
       <c r="K27" t="n">
-        <v>79.51265821188301</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L27" t="n">
-        <v>79.51265821188301</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M27" t="n">
-        <v>807.1937688589707</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N27" t="n">
-        <v>1565.525507233267</v>
+        <v>1208.956507425417</v>
       </c>
       <c r="O27" t="n">
-        <v>2060.931267503301</v>
+        <v>1580.013756950199</v>
       </c>
       <c r="P27" t="n">
         <v>2060.931267503301</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.6768240304061</v>
+        <v>525.9394509267775</v>
       </c>
       <c r="C28" t="n">
-        <v>392.4717060963953</v>
+        <v>525.9394509267775</v>
       </c>
       <c r="D28" t="n">
-        <v>236.8385929989101</v>
+        <v>525.9394509267775</v>
       </c>
       <c r="E28" t="n">
-        <v>236.8385929989101</v>
+        <v>370.38063878598</v>
       </c>
       <c r="F28" t="n">
-        <v>79.51265821188301</v>
+        <v>370.38063878598</v>
       </c>
       <c r="G28" t="n">
-        <v>79.51265821188301</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="H28" t="n">
-        <v>79.51265821188301</v>
+        <v>202.4638741937438</v>
       </c>
       <c r="I28" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J28" t="n">
-        <v>79.51265821188301</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="K28" t="n">
         <v>199.7547654021616</v>
@@ -6408,28 +6408,28 @@
         <v>1285.310134834339</v>
       </c>
       <c r="R28" t="n">
-        <v>1285.310134834339</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="S28" t="n">
-        <v>1088.372083780943</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="T28" t="n">
-        <v>1062.736491426599</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="U28" t="n">
-        <v>1062.736491426599</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="V28" t="n">
-        <v>796.7571462474231</v>
+        <v>1176.57489927548</v>
       </c>
       <c r="W28" t="n">
-        <v>796.7571462474231</v>
+        <v>893.2444972066571</v>
       </c>
       <c r="X28" t="n">
-        <v>562.6768240304061</v>
+        <v>659.1641749896402</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.6768240304061</v>
+        <v>659.1641749896402</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2418.195815704699</v>
+        <v>1855.879971652492</v>
       </c>
       <c r="C29" t="n">
-        <v>2025.020314207629</v>
+        <v>1855.879971652492</v>
       </c>
       <c r="D29" t="n">
-        <v>1639.579185424297</v>
+        <v>1470.43884286916</v>
       </c>
       <c r="E29" t="n">
-        <v>1236.995660540842</v>
+        <v>1067.855317985704</v>
       </c>
       <c r="F29" t="n">
-        <v>820.1012220708193</v>
+        <v>650.960879515682</v>
       </c>
       <c r="G29" t="n">
-        <v>407.6903952132733</v>
+        <v>238.5500526581361</v>
       </c>
       <c r="H29" t="n">
-        <v>188.8610456686997</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="I29" t="n">
         <v>79.51265821188301</v>
       </c>
       <c r="J29" t="n">
-        <v>286.7114375641627</v>
+        <v>286.7114375641631</v>
       </c>
       <c r="K29" t="n">
-        <v>739.4385400931195</v>
+        <v>739.4385400931199</v>
       </c>
       <c r="L29" t="n">
         <v>1349.057479324278</v>
@@ -6478,13 +6478,13 @@
         <v>2683.772873008058</v>
       </c>
       <c r="O29" t="n">
-        <v>3247.982831748358</v>
+        <v>3247.982831748357</v>
       </c>
       <c r="P29" t="n">
         <v>3702.146851520362</v>
       </c>
       <c r="Q29" t="n">
-        <v>3966.576370418528</v>
+        <v>3966.576370418527</v>
       </c>
       <c r="R29" t="n">
         <v>3975.63291059415</v>
@@ -6493,22 +6493,22 @@
         <v>3975.63291059415</v>
       </c>
       <c r="T29" t="n">
-        <v>3975.63291059415</v>
+        <v>3755.423875838425</v>
       </c>
       <c r="U29" t="n">
-        <v>3975.63291059415</v>
+        <v>3755.423875838425</v>
       </c>
       <c r="V29" t="n">
-        <v>3975.63291059415</v>
+        <v>3413.317066541944</v>
       </c>
       <c r="W29" t="n">
-        <v>3604.633875562438</v>
+        <v>3042.318031510231</v>
       </c>
       <c r="X29" t="n">
-        <v>3215.181270495495</v>
+        <v>2652.865426443288</v>
       </c>
       <c r="Y29" t="n">
-        <v>2818.690561416096</v>
+        <v>2256.374717363889</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>79.51265821188301</v>
       </c>
       <c r="J30" t="n">
-        <v>79.51265821188301</v>
+        <v>229.8814001657384</v>
       </c>
       <c r="K30" t="n">
-        <v>79.51265821188301</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L30" t="n">
-        <v>648.6944247024626</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M30" t="n">
-        <v>978.0019416001319</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.333679974428</v>
+        <v>1208.956507425417</v>
       </c>
       <c r="O30" t="n">
-        <v>2346.670624015539</v>
+        <v>1581.054545128285</v>
       </c>
       <c r="P30" t="n">
-        <v>2346.670624015539</v>
+        <v>2061.972055681387</v>
       </c>
       <c r="Q30" t="n">
         <v>2346.670624015539</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>347.6517139234491</v>
+        <v>247.4294228041192</v>
       </c>
       <c r="C31" t="n">
-        <v>347.6517139234491</v>
+        <v>247.4294228041192</v>
       </c>
       <c r="D31" t="n">
-        <v>192.0186008259638</v>
+        <v>247.4294228041192</v>
       </c>
       <c r="E31" t="n">
-        <v>192.0186008259638</v>
+        <v>247.4294228041192</v>
       </c>
       <c r="F31" t="n">
-        <v>79.51265821188301</v>
+        <v>247.4294228041192</v>
       </c>
       <c r="G31" t="n">
         <v>79.51265821188301</v>
@@ -6648,25 +6648,25 @@
         <v>1285.310134834339</v>
       </c>
       <c r="S31" t="n">
-        <v>1088.372083780943</v>
+        <v>1285.310134834339</v>
       </c>
       <c r="T31" t="n">
-        <v>854.0941771756281</v>
+        <v>1285.310134834339</v>
       </c>
       <c r="U31" t="n">
-        <v>854.0941771756281</v>
+        <v>999.8897406748752</v>
       </c>
       <c r="V31" t="n">
-        <v>854.0941771756281</v>
+        <v>733.9103954956994</v>
       </c>
       <c r="W31" t="n">
-        <v>570.7637751068057</v>
+        <v>450.579993426877</v>
       </c>
       <c r="X31" t="n">
-        <v>570.7637751068057</v>
+        <v>247.4294228041192</v>
       </c>
       <c r="Y31" t="n">
-        <v>347.6517139234491</v>
+        <v>247.4294228041192</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2199.366466160125</v>
+        <v>1840.261020600741</v>
       </c>
       <c r="C32" t="n">
-        <v>1806.190964663056</v>
+        <v>1447.085519103672</v>
       </c>
       <c r="D32" t="n">
-        <v>1420.749835879723</v>
+        <v>1061.64439032034</v>
       </c>
       <c r="E32" t="n">
-        <v>1018.166310996268</v>
+        <v>808.305846170543</v>
       </c>
       <c r="F32" t="n">
-        <v>601.2718725262457</v>
+        <v>808.305846170543</v>
       </c>
       <c r="G32" t="n">
-        <v>188.8610456686997</v>
+        <v>395.895019312997</v>
       </c>
       <c r="H32" t="n">
-        <v>188.8610456686997</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="I32" t="n">
         <v>79.51265821188302</v>
       </c>
       <c r="J32" t="n">
-        <v>286.7114375641636</v>
+        <v>286.7114375641634</v>
       </c>
       <c r="K32" t="n">
-        <v>739.4385400931201</v>
+        <v>739.4385400931196</v>
       </c>
       <c r="L32" t="n">
-        <v>1349.057479324279</v>
+        <v>1349.057479324278</v>
       </c>
       <c r="M32" t="n">
         <v>2024.463033077029</v>
@@ -6718,7 +6718,7 @@
         <v>3247.982831748358</v>
       </c>
       <c r="P32" t="n">
-        <v>3702.146851520363</v>
+        <v>3702.146851520362</v>
       </c>
       <c r="Q32" t="n">
         <v>3966.576370418528</v>
@@ -6730,22 +6730,22 @@
         <v>3826.253929748501</v>
       </c>
       <c r="T32" t="n">
-        <v>3727.911335314346</v>
+        <v>3606.044894992777</v>
       </c>
       <c r="U32" t="n">
-        <v>3727.911335314346</v>
+        <v>3350.352319719731</v>
       </c>
       <c r="V32" t="n">
-        <v>3385.804526017864</v>
+        <v>3008.24551042325</v>
       </c>
       <c r="W32" t="n">
-        <v>3385.804526017864</v>
+        <v>2637.246475391537</v>
       </c>
       <c r="X32" t="n">
-        <v>2996.351920950921</v>
+        <v>2637.246475391537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2599.861211871522</v>
+        <v>2240.755766312138</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>79.51265821188302</v>
       </c>
       <c r="J33" t="n">
-        <v>79.51265821188302</v>
+        <v>229.8814001657385</v>
       </c>
       <c r="K33" t="n">
-        <v>79.51265821188302</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L33" t="n">
-        <v>79.51265821188302</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M33" t="n">
-        <v>807.1937688589707</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N33" t="n">
-        <v>1565.525507233267</v>
+        <v>1254.375381243239</v>
       </c>
       <c r="O33" t="n">
         <v>1864.71232528435</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>302.6944378369889</v>
+        <v>216.3020868215619</v>
       </c>
       <c r="C34" t="n">
-        <v>302.6944378369889</v>
+        <v>216.3020868215619</v>
       </c>
       <c r="D34" t="n">
-        <v>238.5243167485942</v>
+        <v>216.3020868215619</v>
       </c>
       <c r="E34" t="n">
-        <v>238.5243167485942</v>
+        <v>216.3020868215619</v>
       </c>
       <c r="F34" t="n">
-        <v>238.5243167485942</v>
+        <v>216.3020868215619</v>
       </c>
       <c r="G34" t="n">
-        <v>238.5243167485942</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="H34" t="n">
-        <v>86.04457428768126</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="I34" t="n">
-        <v>86.04457428768126</v>
+        <v>79.51265821188302</v>
       </c>
       <c r="J34" t="n">
         <v>79.51265821188302</v>
@@ -6885,25 +6885,25 @@
         <v>1285.310134834339</v>
       </c>
       <c r="S34" t="n">
-        <v>1088.372083780943</v>
+        <v>1285.310134834339</v>
       </c>
       <c r="T34" t="n">
-        <v>854.0941771756281</v>
+        <v>1051.032228229024</v>
       </c>
       <c r="U34" t="n">
-        <v>568.6737830161646</v>
+        <v>765.61183406956</v>
       </c>
       <c r="V34" t="n">
-        <v>302.6944378369889</v>
+        <v>499.6324888903843</v>
       </c>
       <c r="W34" t="n">
-        <v>302.6944378369889</v>
+        <v>216.3020868215619</v>
       </c>
       <c r="X34" t="n">
-        <v>302.6944378369889</v>
+        <v>216.3020868215619</v>
       </c>
       <c r="Y34" t="n">
-        <v>302.6944378369889</v>
+        <v>216.3020868215619</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1847.299124613197</v>
+        <v>1993.989612946876</v>
       </c>
       <c r="C35" t="n">
-        <v>1454.123623116127</v>
+        <v>1600.814111449807</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.237758510815</v>
+        <v>1215.372982666475</v>
       </c>
       <c r="E35" t="n">
-        <v>917.6542336273596</v>
+        <v>812.7894577830192</v>
       </c>
       <c r="F35" t="n">
-        <v>917.6542336273596</v>
+        <v>395.895019312997</v>
       </c>
       <c r="G35" t="n">
-        <v>505.2434067698137</v>
+        <v>395.895019312997</v>
       </c>
       <c r="H35" t="n">
-        <v>188.8610456686997</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="I35" t="n">
         <v>79.51265821188301</v>
       </c>
       <c r="J35" t="n">
-        <v>286.7114375641636</v>
+        <v>286.7114375641631</v>
       </c>
       <c r="K35" t="n">
-        <v>739.4385400931201</v>
+        <v>739.43854009312</v>
       </c>
       <c r="L35" t="n">
         <v>1349.057479324278</v>
@@ -6967,22 +6967,22 @@
         <v>3826.253929748501</v>
       </c>
       <c r="T35" t="n">
-        <v>3606.044894992776</v>
+        <v>3826.253929748501</v>
       </c>
       <c r="U35" t="n">
-        <v>3350.352319719731</v>
+        <v>3570.561354475456</v>
       </c>
       <c r="V35" t="n">
-        <v>3008.245510423249</v>
+        <v>3551.426707836328</v>
       </c>
       <c r="W35" t="n">
-        <v>2637.246475391537</v>
+        <v>3180.427672804616</v>
       </c>
       <c r="X35" t="n">
-        <v>2247.793870324594</v>
+        <v>2790.975067737672</v>
       </c>
       <c r="Y35" t="n">
-        <v>2247.793870324594</v>
+        <v>2394.484358658273</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>79.51265821188301</v>
       </c>
       <c r="J36" t="n">
-        <v>79.51265821188301</v>
+        <v>229.8814001657384</v>
       </c>
       <c r="K36" t="n">
-        <v>79.51265821188301</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6944247024626</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.380793983213</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N36" t="n">
-        <v>1255.416169421325</v>
+        <v>1208.956507425417</v>
       </c>
       <c r="O36" t="n">
-        <v>1865.753113462436</v>
+        <v>1580.013756950199</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.670624015539</v>
+        <v>2060.931267503301</v>
       </c>
       <c r="Q36" t="n">
-        <v>2346.670624015539</v>
+        <v>2345.629835837452</v>
       </c>
       <c r="R36" t="n">
         <v>2346.670624015539</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>581.4923916009553</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="C37" t="n">
-        <v>411.2872736669445</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="D37" t="n">
-        <v>411.2872736669445</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="E37" t="n">
-        <v>411.2872736669445</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="F37" t="n">
-        <v>253.9613388799175</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="G37" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="H37" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="I37" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="J37" t="n">
         <v>79.51265821188301</v>
@@ -7128,19 +7128,19 @@
         <v>1051.032228229024</v>
       </c>
       <c r="U37" t="n">
-        <v>1051.032228229024</v>
+        <v>765.61183406956</v>
       </c>
       <c r="V37" t="n">
-        <v>1051.032228229024</v>
+        <v>499.6324888903843</v>
       </c>
       <c r="W37" t="n">
-        <v>1051.032228229024</v>
+        <v>264.7206769031843</v>
       </c>
       <c r="X37" t="n">
-        <v>816.9519060120066</v>
+        <v>264.7206769031843</v>
       </c>
       <c r="Y37" t="n">
-        <v>766.7004102922566</v>
+        <v>264.7206769031843</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2406.400439804423</v>
+        <v>2013.224938307353</v>
       </c>
       <c r="C38" t="n">
         <v>2013.224938307353</v>
@@ -7174,13 +7174,13 @@
         <v>79.51265821188301</v>
       </c>
       <c r="J38" t="n">
-        <v>286.711437564163</v>
+        <v>286.7114375641637</v>
       </c>
       <c r="K38" t="n">
-        <v>739.4385400931197</v>
+        <v>739.4385400931204</v>
       </c>
       <c r="L38" t="n">
-        <v>1349.057479324278</v>
+        <v>1349.057479324279</v>
       </c>
       <c r="M38" t="n">
         <v>2024.463033077029</v>
@@ -7192,34 +7192,34 @@
         <v>3247.982831748358</v>
       </c>
       <c r="P38" t="n">
-        <v>3702.146851520362</v>
+        <v>3702.146851520363</v>
       </c>
       <c r="Q38" t="n">
-        <v>3966.576370418527</v>
+        <v>3966.576370418528</v>
       </c>
       <c r="R38" t="n">
         <v>3975.63291059415</v>
       </c>
       <c r="S38" t="n">
-        <v>3934.945308958643</v>
+        <v>3826.253929748501</v>
       </c>
       <c r="T38" t="n">
-        <v>3934.945308958643</v>
+        <v>3606.044894992776</v>
       </c>
       <c r="U38" t="n">
-        <v>3934.945308958643</v>
+        <v>3350.352319719731</v>
       </c>
       <c r="V38" t="n">
-        <v>3592.838499662162</v>
+        <v>3170.167287485408</v>
       </c>
       <c r="W38" t="n">
-        <v>3592.838499662162</v>
+        <v>2799.168252453695</v>
       </c>
       <c r="X38" t="n">
-        <v>3203.385894595218</v>
+        <v>2409.715647386752</v>
       </c>
       <c r="Y38" t="n">
-        <v>2806.895185515819</v>
+        <v>2013.224938307353</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>79.51265821188301</v>
       </c>
       <c r="J39" t="n">
-        <v>79.51265821188301</v>
+        <v>229.8814001657384</v>
       </c>
       <c r="K39" t="n">
-        <v>79.51265821188301</v>
+        <v>613.2931553051383</v>
       </c>
       <c r="L39" t="n">
-        <v>79.51265821188301</v>
+        <v>1182.474921795718</v>
       </c>
       <c r="M39" t="n">
-        <v>807.1937688589707</v>
+        <v>1190.921131987305</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.375381243239</v>
+        <v>1208.956507425417</v>
       </c>
       <c r="O39" t="n">
-        <v>1864.71232528435</v>
+        <v>1580.013756950199</v>
       </c>
       <c r="P39" t="n">
-        <v>2345.629835837452</v>
+        <v>2060.931267503301</v>
       </c>
       <c r="Q39" t="n">
         <v>2345.629835837452</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.9097327426639</v>
+        <v>560.9097013841765</v>
       </c>
       <c r="C40" t="n">
-        <v>472.7046148086531</v>
+        <v>390.7045834501657</v>
       </c>
       <c r="D40" t="n">
-        <v>472.7046148086531</v>
+        <v>235.0714703526805</v>
       </c>
       <c r="E40" t="n">
-        <v>317.1458026678556</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="F40" t="n">
-        <v>159.8198678808286</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="G40" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="H40" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="I40" t="n">
-        <v>86.04457428768124</v>
+        <v>79.51265821188301</v>
       </c>
       <c r="J40" t="n">
         <v>79.51265821188301</v>
@@ -7362,22 +7362,22 @@
         <v>1285.310134834339</v>
       </c>
       <c r="T40" t="n">
-        <v>1285.310134834339</v>
+        <v>1265.618436451958</v>
       </c>
       <c r="U40" t="n">
-        <v>1285.310134834339</v>
+        <v>980.1980422924947</v>
       </c>
       <c r="V40" t="n">
-        <v>1285.310134834339</v>
+        <v>980.1980422924947</v>
       </c>
       <c r="W40" t="n">
-        <v>1285.310134834339</v>
+        <v>980.1980422924947</v>
       </c>
       <c r="X40" t="n">
-        <v>1051.229812617322</v>
+        <v>746.1177200754778</v>
       </c>
       <c r="Y40" t="n">
-        <v>828.1177514339652</v>
+        <v>746.1177200754778</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1181.372335643195</v>
+        <v>1291.655195764198</v>
       </c>
       <c r="C41" t="n">
-        <v>875.5737952419286</v>
+        <v>1291.655195764198</v>
       </c>
       <c r="D41" t="n">
-        <v>875.5737952419286</v>
+        <v>1278.157320125384</v>
       </c>
       <c r="E41" t="n">
         <v>875.5737952419286</v>
@@ -7411,52 +7411,52 @@
         <v>46.26852991436034</v>
       </c>
       <c r="J41" t="n">
-        <v>46.26852991436034</v>
+        <v>253.4673092666404</v>
       </c>
       <c r="K41" t="n">
-        <v>46.26852991436034</v>
+        <v>706.194411795597</v>
       </c>
       <c r="L41" t="n">
-        <v>140.8498616496724</v>
+        <v>706.194411795597</v>
       </c>
       <c r="M41" t="n">
-        <v>713.4229193398816</v>
+        <v>1278.767469485806</v>
       </c>
       <c r="N41" t="n">
-        <v>1285.995977030091</v>
+        <v>1278.767469485806</v>
       </c>
       <c r="O41" t="n">
-        <v>1850.205935770389</v>
+        <v>1594.832957047847</v>
       </c>
       <c r="P41" t="n">
-        <v>2304.369955542394</v>
+        <v>2048.996976819852</v>
       </c>
       <c r="Q41" t="n">
-        <v>2304.369955542394</v>
+        <v>2313.426495718017</v>
       </c>
       <c r="R41" t="n">
         <v>2313.426495718017</v>
       </c>
       <c r="S41" t="n">
-        <v>2313.426495718017</v>
+        <v>2164.047514872367</v>
       </c>
       <c r="T41" t="n">
-        <v>2313.426495718017</v>
+        <v>1943.838480116643</v>
       </c>
       <c r="U41" t="n">
-        <v>2313.426495718017</v>
+        <v>1688.145904843597</v>
       </c>
       <c r="V41" t="n">
-        <v>1971.319686421535</v>
+        <v>1688.145904843597</v>
       </c>
       <c r="W41" t="n">
-        <v>1971.319686421535</v>
+        <v>1688.145904843597</v>
       </c>
       <c r="X41" t="n">
-        <v>1581.867081354592</v>
+        <v>1688.145904843597</v>
       </c>
       <c r="Y41" t="n">
-        <v>1581.867081354592</v>
+        <v>1291.655195764198</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>196.6372718682157</v>
       </c>
       <c r="K42" t="n">
-        <v>196.6372718682157</v>
+        <v>580.0490270076156</v>
       </c>
       <c r="L42" t="n">
-        <v>678.9166595929081</v>
+        <v>1149.230793498195</v>
       </c>
       <c r="M42" t="n">
-        <v>687.3628697844957</v>
+        <v>1157.677003689783</v>
       </c>
       <c r="N42" t="n">
-        <v>1259.935927474705</v>
+        <v>1175.712379127895</v>
       </c>
       <c r="O42" t="n">
-        <v>1832.508985164914</v>
+        <v>1546.769628652676</v>
       </c>
       <c r="P42" t="n">
-        <v>2313.426495718017</v>
+        <v>2027.687139205779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2313.426495718016</v>
+        <v>2312.38570753993</v>
       </c>
       <c r="R42" t="n">
         <v>2313.426495718016</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1773.475302500447</v>
+        <v>817.1473056704081</v>
       </c>
       <c r="C43" t="n">
-        <v>1603.270184566436</v>
+        <v>646.9421877363973</v>
       </c>
       <c r="D43" t="n">
-        <v>1447.637071468951</v>
+        <v>646.9421877363973</v>
       </c>
       <c r="E43" t="n">
-        <v>1447.637071468951</v>
+        <v>646.9421877363973</v>
       </c>
       <c r="F43" t="n">
-        <v>1383.059977538334</v>
+        <v>489.6162529493702</v>
       </c>
       <c r="G43" t="n">
-        <v>1383.059977538334</v>
+        <v>321.699488357134</v>
       </c>
       <c r="H43" t="n">
-        <v>1230.580235077422</v>
+        <v>169.2197458962211</v>
       </c>
       <c r="I43" t="n">
-        <v>1107.629019095561</v>
+        <v>46.26852991436034</v>
       </c>
       <c r="J43" t="n">
-        <v>1107.629019095561</v>
+        <v>46.26852991436034</v>
       </c>
       <c r="K43" t="n">
-        <v>1227.871126285839</v>
+        <v>166.5106371046389</v>
       </c>
       <c r="L43" t="n">
-        <v>1441.146587652427</v>
+        <v>379.7860984712264</v>
       </c>
       <c r="M43" t="n">
-        <v>1679.257652721774</v>
+        <v>617.8971635405738</v>
       </c>
       <c r="N43" t="n">
-        <v>1913.03462191185</v>
+        <v>851.6741327306491</v>
       </c>
       <c r="O43" t="n">
-        <v>2122.46498077023</v>
+        <v>1061.10449158903</v>
       </c>
       <c r="P43" t="n">
-        <v>2282.322962441394</v>
+        <v>1220.962473260194</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.426495718017</v>
+        <v>1252.066006536816</v>
       </c>
       <c r="R43" t="n">
-        <v>2204.691260159158</v>
+        <v>1252.066006536816</v>
       </c>
       <c r="S43" t="n">
-        <v>2007.753209105762</v>
+        <v>1252.066006536816</v>
       </c>
       <c r="T43" t="n">
-        <v>1773.475302500447</v>
+        <v>1252.066006536816</v>
       </c>
       <c r="U43" t="n">
-        <v>1773.475302500447</v>
+        <v>1252.066006536816</v>
       </c>
       <c r="V43" t="n">
-        <v>1773.475302500447</v>
+        <v>1236.435646578726</v>
       </c>
       <c r="W43" t="n">
-        <v>1773.475302500447</v>
+        <v>1236.435646578726</v>
       </c>
       <c r="X43" t="n">
-        <v>1773.475302500447</v>
+        <v>1002.355324361709</v>
       </c>
       <c r="Y43" t="n">
-        <v>1773.475302500447</v>
+        <v>1002.355324361709</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1126.988435860278</v>
+        <v>159.6010356893767</v>
       </c>
       <c r="C44" t="n">
-        <v>1126.988435860278</v>
+        <v>159.6010356893767</v>
       </c>
       <c r="D44" t="n">
-        <v>741.5473070769453</v>
+        <v>46.26852991436034</v>
       </c>
       <c r="E44" t="n">
-        <v>741.5473070769453</v>
+        <v>46.26852991436034</v>
       </c>
       <c r="F44" t="n">
-        <v>458.6793567719063</v>
+        <v>46.26852991436034</v>
       </c>
       <c r="G44" t="n">
         <v>46.26852991436034</v>
@@ -7648,52 +7648,52 @@
         <v>46.26852991436034</v>
       </c>
       <c r="J44" t="n">
-        <v>46.26852991436034</v>
+        <v>253.4673092666404</v>
       </c>
       <c r="K44" t="n">
-        <v>498.995632443317</v>
+        <v>586.6507824717665</v>
       </c>
       <c r="L44" t="n">
-        <v>1071.568690133526</v>
+        <v>1159.223840161976</v>
       </c>
       <c r="M44" t="n">
-        <v>1644.141747823735</v>
+        <v>1731.796897852185</v>
       </c>
       <c r="N44" t="n">
-        <v>2216.714805513945</v>
+        <v>2304.369955542394</v>
       </c>
       <c r="O44" t="n">
-        <v>2313.426495718017</v>
+        <v>2304.369955542394</v>
       </c>
       <c r="P44" t="n">
-        <v>2313.426495718017</v>
+        <v>2304.369955542394</v>
       </c>
       <c r="Q44" t="n">
-        <v>2313.426495718017</v>
+        <v>2304.369955542394</v>
       </c>
       <c r="R44" t="n">
         <v>2313.426495718017</v>
       </c>
       <c r="S44" t="n">
-        <v>2313.426495718017</v>
+        <v>2164.047514872367</v>
       </c>
       <c r="T44" t="n">
-        <v>2313.426495718017</v>
+        <v>1943.838480116643</v>
       </c>
       <c r="U44" t="n">
-        <v>2313.426495718017</v>
+        <v>1688.145904843597</v>
       </c>
       <c r="V44" t="n">
-        <v>2313.426495718017</v>
+        <v>1346.039095547116</v>
       </c>
       <c r="W44" t="n">
-        <v>2313.426495718017</v>
+        <v>1346.039095547116</v>
       </c>
       <c r="X44" t="n">
-        <v>1923.973890651073</v>
+        <v>956.5864904801725</v>
       </c>
       <c r="Y44" t="n">
-        <v>1527.483181571675</v>
+        <v>560.0957814007736</v>
       </c>
     </row>
     <row r="45">
@@ -7736,19 +7736,19 @@
         <v>46.26852991436034</v>
       </c>
       <c r="M45" t="n">
-        <v>618.8415876045694</v>
+        <v>401.6235132722582</v>
       </c>
       <c r="N45" t="n">
-        <v>1191.414645294778</v>
+        <v>974.1965709624673</v>
       </c>
       <c r="O45" t="n">
-        <v>1763.987702984988</v>
+        <v>1546.769628652676</v>
       </c>
       <c r="P45" t="n">
-        <v>2244.90521353809</v>
+        <v>2027.687139205779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2313.426495718017</v>
+        <v>2312.385707539931</v>
       </c>
       <c r="R45" t="n">
         <v>2313.426495718017</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>198.7482723752732</v>
+        <v>178.4496467864304</v>
       </c>
       <c r="C46" t="n">
-        <v>198.7482723752732</v>
+        <v>178.4496467864304</v>
       </c>
       <c r="D46" t="n">
-        <v>198.7482723752732</v>
+        <v>178.4496467864304</v>
       </c>
       <c r="E46" t="n">
-        <v>198.7482723752732</v>
+        <v>178.4496467864304</v>
       </c>
       <c r="F46" t="n">
-        <v>198.7482723752732</v>
+        <v>46.26852991436034</v>
       </c>
       <c r="G46" t="n">
-        <v>198.7482723752732</v>
+        <v>46.26852991436034</v>
       </c>
       <c r="H46" t="n">
         <v>46.26852991436034</v>
@@ -7833,25 +7833,25 @@
         <v>1252.066006536816</v>
       </c>
       <c r="S46" t="n">
-        <v>1252.066006536816</v>
+        <v>1055.12795548342</v>
       </c>
       <c r="T46" t="n">
-        <v>1017.788099931501</v>
+        <v>820.8500488781053</v>
       </c>
       <c r="U46" t="n">
-        <v>732.3677057720372</v>
+        <v>820.8500488781053</v>
       </c>
       <c r="V46" t="n">
-        <v>466.3883605928614</v>
+        <v>820.8500488781053</v>
       </c>
       <c r="W46" t="n">
-        <v>432.8285945922902</v>
+        <v>820.8500488781053</v>
       </c>
       <c r="X46" t="n">
-        <v>198.7482723752732</v>
+        <v>586.7697266610884</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.7482723752732</v>
+        <v>363.6576654777317</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>165.6267518881121</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7993,10 +7993,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>161.228283207779</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8066,10 +8066,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>611.5488945981463</v>
+        <v>670.7437459788159</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>140.4348192712015</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8221,7 +8221,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>229.6353980617909</v>
       </c>
       <c r="M5" t="n">
         <v>701.2411122488187</v>
@@ -8233,10 +8233,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>260.9998262991272</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,28 +8294,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>212.7539877918623</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
         <v>670.7437459788159</v>
       </c>
       <c r="N6" t="n">
-        <v>663.7287367836707</v>
+        <v>191.6590188836856</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8464,13 +8464,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>528.9337973708494</v>
       </c>
       <c r="O8" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>348.678580035667</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>291.9494368729377</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>670.7437459788159</v>
       </c>
       <c r="N9" t="n">
-        <v>663.7287367836707</v>
+        <v>112.9269813261953</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.49902335300069</v>
+        <v>54.4990233530007</v>
       </c>
       <c r="K11" t="n">
-        <v>48.36674004641425</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>614.1314123341073</v>
+        <v>35.77478840460326</v>
       </c>
       <c r="M11" t="n">
-        <v>597.3699041048376</v>
+        <v>19.01328017533348</v>
       </c>
       <c r="N11" t="n">
-        <v>570.5799006446006</v>
+        <v>544.1409856762079</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>43.25444962427571</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>64.11086128989045</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>44.81439699583028</v>
+        <v>44.81439699583029</v>
       </c>
       <c r="K12" t="n">
-        <v>25.28116858871377</v>
+        <v>25.28116858871378</v>
       </c>
       <c r="L12" t="n">
-        <v>72.79327775354447</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>569.8250984834558</v>
+        <v>335.6208979068964</v>
       </c>
       <c r="N12" t="n">
-        <v>560.1390729819161</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>576.2798783233125</v>
@@ -8789,10 +8789,10 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.14625741928667</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
-        <v>69.96250371567442</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>54.49902335300069</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>48.36674004641425</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>614.1314123341073</v>
       </c>
       <c r="M14" t="n">
-        <v>573.301514021108</v>
+        <v>35.46282332675443</v>
       </c>
       <c r="N14" t="n">
-        <v>594.6482907283303</v>
+        <v>16.29166679882627</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>43.25444962427571</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>64.11086128989045</v>
+        <v>64.11086128989047</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>93.3695946224358</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>44.81439699583028</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>25.28116858871377</v>
+        <v>25.28116858871378</v>
       </c>
       <c r="L15" t="n">
-        <v>3.579861410184591</v>
+        <v>3.579861410184606</v>
       </c>
       <c r="M15" t="n">
         <v>569.8250984834559</v>
@@ -9023,13 +9023,13 @@
         <v>576.2798783233125</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>125.5021046478304</v>
       </c>
       <c r="Q15" t="n">
-        <v>109.3596737626467</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
-        <v>69.96250371567442</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110181</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>44.81439699583028</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>25.28116858871377</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>586.1011707971345</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>373.7798581340784</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.14625741928667</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>69.96250371567442</v>
@@ -9403,7 +9403,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110181</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9424,7 +9424,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5176150018525</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>661.3541695827167</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>372.7285569440924</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.14625741928668</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
-        <v>69.96250371567442</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>44.81439699583029</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>25.28116858871378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>345.3765345320865</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>372.7285569440924</v>
       </c>
       <c r="P24" t="n">
-        <v>11.02665589334983</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.14625741928668</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>69.96250371567442</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,25 +9953,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>44.81439699583029</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>25.28116858871378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>3.579861410184606</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>498.3331132524291</v>
+        <v>372.7285569440924</v>
       </c>
       <c r="P27" t="n">
-        <v>11.02665589334983</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>44.81439699583029</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>25.28116858871378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>324.1023300061431</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>373.7798581340784</v>
       </c>
       <c r="P30" t="n">
-        <v>11.02665589334983</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.14625741928668</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>69.96250371567442</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>44.81439699583029</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>25.28116858871378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>3.579861410184606</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>45.87765032103208</v>
       </c>
       <c r="O33" t="n">
-        <v>300.1321615161148</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.14625741928668</v>
+        <v>40.14625741928667</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>44.81439699583029</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>25.28116858871378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>586.1011707971345</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>372.7285569440924</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.14625741928668</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>69.96250371567442</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684357</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.517615001853</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>44.81439699583029</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>25.28116858871378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>3.579861410184606</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>433.4810474203601</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>372.7285569440924</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.14625741928668</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.4990233530007</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>48.36674004641426</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>131.3114871271408</v>
+        <v>35.77478840460324</v>
       </c>
       <c r="M41" t="n">
-        <v>597.3699041048377</v>
+        <v>597.3699041048376</v>
       </c>
       <c r="N41" t="n">
-        <v>594.6482907283305</v>
+        <v>16.29166679882624</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>343.3973017817434</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.11086128989047</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>93.36959462243578</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>25.28116858871378</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>490.7307581017931</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>560.1390729819163</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>576.2798783233127</v>
+        <v>372.7285569440926</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.14625741928668</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>69.96250371567442</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.4990233530007</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>505.666843611017</v>
+        <v>384.915702879875</v>
       </c>
       <c r="L44" t="n">
         <v>614.1314123341074</v>
       </c>
       <c r="M44" t="n">
-        <v>597.3699041048376</v>
+        <v>597.3699041048377</v>
       </c>
       <c r="N44" t="n">
         <v>594.6482907283305</v>
       </c>
       <c r="O44" t="n">
-        <v>121.8278095009669</v>
+        <v>24.13923353725777</v>
       </c>
       <c r="P44" t="n">
-        <v>43.25444962427572</v>
+        <v>43.25444962427571</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.11086128989047</v>
+        <v>64.11086128989045</v>
       </c>
       <c r="R44" t="n">
-        <v>93.3695946224358</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>44.81439699583029</v>
+        <v>44.81439699583028</v>
       </c>
       <c r="K45" t="n">
-        <v>25.28116858871378</v>
+        <v>25.28116858871377</v>
       </c>
       <c r="L45" t="n">
-        <v>3.579861410184606</v>
+        <v>3.579861410184591</v>
       </c>
       <c r="M45" t="n">
-        <v>569.825098483456</v>
+        <v>350.4129021881921</v>
       </c>
       <c r="N45" t="n">
-        <v>560.1390729819163</v>
+        <v>560.1390729819162</v>
       </c>
       <c r="O45" t="n">
         <v>576.2798783233126</v>
@@ -11396,10 +11396,10 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>109.3596737626467</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>69.96250371567442</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.2867185889705</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>313.2185374901028</v>
       </c>
       <c r="I11" t="n">
-        <v>108.2549035822485</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>147.885191037193</v>
+        <v>67.58735801227488</v>
       </c>
       <c r="T11" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>280.2715547199051</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23439,7 +23439,7 @@
         <v>121.7217038220421</v>
       </c>
       <c r="J13" t="n">
-        <v>6.466596915040245</v>
+        <v>6.466596915040249</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>107.6478832032705</v>
       </c>
       <c r="S13" t="n">
-        <v>194.9686705428615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>231.935127539262</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>200.2688550233916</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>85.45940624794113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>57.07199150575354</v>
+        <v>313.2185374901028</v>
       </c>
       <c r="I14" t="n">
         <v>108.2549035822485</v>
@@ -23554,13 +23554,13 @@
         <v>253.1356495203149</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>56.61313189768919</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>7.527502728068669</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>166.2375969463139</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>150.9549450363038</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>121.7217038220421</v>
       </c>
       <c r="J16" t="n">
-        <v>6.466596915040245</v>
+        <v>6.466596915040249</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>231.935127539262</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5661902178689</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>21.12270771497526</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>170.4229195963624</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>313.2185374901028</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>218.0069444081672</v>
       </c>
       <c r="U17" t="n">
-        <v>133.8217792297978</v>
+        <v>253.1356495203149</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>166.6970725970536</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2375969463139</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>150.9549450363038</v>
@@ -23913,7 +23913,7 @@
         <v>121.7217038220421</v>
       </c>
       <c r="J19" t="n">
-        <v>6.466596915040245</v>
+        <v>6.466596915040249</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>231.935127539262</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5661902178689</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>176.1041274298601</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>305.415245433273</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3.785339399960037</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>108.2549035822485</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>121.7217038220421</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.466596915040249</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>107.6478832032705</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.1591833032776</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>231.935127539262</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5661902178689</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24192,7 +24192,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>85.03126487450731</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>313.2185374901028</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>108.2549035822485</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>147.885191037193</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U23" t="n">
         <v>253.1356495203149</v>
       </c>
       <c r="V23" t="n">
-        <v>120.6477759183542</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>327.0083190622427</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>13.98443947873488</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24378,13 +24378,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>128.6435736218473</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H25" t="n">
         <v>150.9549450363038</v>
       </c>
       <c r="I25" t="n">
-        <v>121.7217038220421</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>6.466596915040249</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>107.6478832032705</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>147.885191037193</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.277476906255487</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1356495203149</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>284.6137359186336</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>51.46346168215419</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2375969463139</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>150.9549450363038</v>
       </c>
       <c r="I28" t="n">
-        <v>121.7217038220421</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>6.466596915040249</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>107.6478832032705</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T28" t="n">
-        <v>206.555891108461</v>
+        <v>231.935127539262</v>
       </c>
       <c r="U28" t="n">
         <v>282.5661902178689</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>96.57748144097496</v>
+        <v>155.7715169883123</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>108.2549035822485</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>147.885191037193</v>
       </c>
       <c r="T29" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1356495203149</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>44.37179225121679</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2375969463139</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>150.9549450363038</v>
@@ -24888,25 +24888,25 @@
         <v>107.6478832032705</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>231.935127539262</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5661902178689</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>30.62045407831653</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>147.7525309263222</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>313.2185374901028</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>108.2549035822485</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>120.6477759183531</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1356495203149</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>90.54836208899965</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25089,16 +25089,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2375969463139</v>
+        <v>30.81606262273181</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.9549450363038</v>
       </c>
       <c r="I34" t="n">
         <v>121.7217038220421</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.466596915040245</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>107.6478832032705</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>249.03971153624</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.2867185889705</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>108.2549035822485</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.0069444081672</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>319.7424410307807</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25323,10 +25323,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H37" t="n">
         <v>150.9549450363038</v>
@@ -25335,7 +25335,7 @@
         <v>121.7217038220421</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.466596915040245</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5661902178689</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>47.93440418080621</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.1319598089706</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>107.6044654180408</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1356495203149</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>160.302559291537</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>93.20005628909803</v>
+        <v>166.2375969463139</v>
       </c>
       <c r="H40" t="n">
         <v>150.9549450363038</v>
@@ -25572,7 +25572,7 @@
         <v>121.7217038220421</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.466596915040245</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>194.9686705428615</v>
       </c>
       <c r="T40" t="n">
-        <v>231.935127539262</v>
+        <v>212.4403461407055</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5661902178689</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>86.50319148484505</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>368.2238206130727</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>147.885191037193</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1356495203149</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>91.82135244784627</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.2375969463139</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.466596915040249</v>
+        <v>6.466596915040245</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>107.6478832032705</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.9686705428615</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>231.935127539262</v>
       </c>
       <c r="U43" t="n">
         <v>282.5661902178689</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>247.8454953688752</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25870,16 +25870,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>269.3875367782327</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>132.6862232833333</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.2867185889705</v>
       </c>
       <c r="H44" t="n">
         <v>313.2185374901028</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>147.885191037193</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.0069444081672</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1356495203149</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26034,19 +26034,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>24.89336973580737</v>
       </c>
       <c r="G46" t="n">
         <v>166.2375969463139</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.9549450363038</v>
       </c>
       <c r="I46" t="n">
         <v>121.7217038220421</v>
       </c>
       <c r="J46" t="n">
-        <v>6.466596915040249</v>
+        <v>6.466596915040245</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>107.6478832032705</v>
       </c>
       <c r="S46" t="n">
-        <v>194.9686705428615</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5661902178689</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>247.2729297075686</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>555797.2919788739</v>
+        <v>555797.2919788735</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>555797.2919788738</v>
+        <v>555797.2919788739</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>716844.6632502157</v>
+        <v>716844.6632502158</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716844.6632502157</v>
+        <v>716844.6632502159</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>555797.291978874</v>
+        <v>555797.2919788735</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>522963.3164707345</v>
+      </c>
+      <c r="C2" t="n">
         <v>522963.3164707344</v>
-      </c>
-      <c r="C2" t="n">
-        <v>522963.3164707345</v>
       </c>
       <c r="D2" t="n">
         <v>522963.3164707345</v>
       </c>
       <c r="E2" t="n">
-        <v>336325.391652651</v>
+        <v>336325.3916526508</v>
       </c>
       <c r="F2" t="n">
         <v>336325.3916526509</v>
       </c>
       <c r="G2" t="n">
+        <v>429392.7310755181</v>
+      </c>
+      <c r="H2" t="n">
         <v>429392.7310755179</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>429392.7310755179</v>
+      </c>
+      <c r="J2" t="n">
         <v>429392.7310755178</v>
       </c>
-      <c r="I2" t="n">
-        <v>429392.731075518</v>
-      </c>
-      <c r="J2" t="n">
-        <v>429392.7310755179</v>
-      </c>
       <c r="K2" t="n">
-        <v>429392.7310755179</v>
+        <v>429392.7310755178</v>
       </c>
       <c r="L2" t="n">
         <v>429392.7310755179</v>
       </c>
       <c r="M2" t="n">
-        <v>429392.7310755178</v>
+        <v>429392.7310755181</v>
       </c>
       <c r="N2" t="n">
-        <v>429392.7310755181</v>
+        <v>429392.731075518</v>
       </c>
       <c r="O2" t="n">
         <v>336325.3916526508</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>148767.6039517703</v>
+        <v>148767.6039517702</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>259459.3065249095</v>
+        <v>259459.3065249096</v>
       </c>
       <c r="C4" t="n">
         <v>259459.3065249095</v>
@@ -26524,46 +26524,46 @@
         <v>891.7203297839151</v>
       </c>
       <c r="C6" t="n">
-        <v>194712.3272109111</v>
+        <v>194712.327210911</v>
       </c>
       <c r="D6" t="n">
-        <v>194712.3272109111</v>
+        <v>194712.327210911</v>
       </c>
       <c r="E6" t="n">
-        <v>67591.25842447823</v>
+        <v>66947.67937338131</v>
       </c>
       <c r="F6" t="n">
-        <v>216358.8623762484</v>
+        <v>215715.2833251516</v>
       </c>
       <c r="G6" t="n">
-        <v>140598.3316243938</v>
+        <v>140275.6744333759</v>
       </c>
       <c r="H6" t="n">
-        <v>254494.7929297249</v>
+        <v>254172.135738707</v>
       </c>
       <c r="I6" t="n">
-        <v>254494.7929297252</v>
+        <v>254172.1357387071</v>
       </c>
       <c r="J6" t="n">
-        <v>103171.2524183139</v>
+        <v>102848.5952272958</v>
       </c>
       <c r="K6" t="n">
-        <v>254494.792929725</v>
+        <v>254172.135738707</v>
       </c>
       <c r="L6" t="n">
-        <v>254494.7929297251</v>
+        <v>254172.1357387071</v>
       </c>
       <c r="M6" t="n">
-        <v>254494.7929297249</v>
+        <v>254172.1357387072</v>
       </c>
       <c r="N6" t="n">
-        <v>254494.7929297253</v>
+        <v>254172.1357387071</v>
       </c>
       <c r="O6" t="n">
-        <v>216358.8623762483</v>
+        <v>215715.2833251515</v>
       </c>
       <c r="P6" t="n">
-        <v>216358.8623762486</v>
+        <v>215715.2833251517</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>185.1718302667158</v>
+        <v>185.1718302667157</v>
       </c>
       <c r="F3" t="n">
-        <v>185.1718302667158</v>
+        <v>185.1718302667157</v>
       </c>
       <c r="G3" t="n">
-        <v>185.1718302667158</v>
+        <v>185.1718302667157</v>
       </c>
       <c r="H3" t="n">
         <v>185.1718302667157</v>
@@ -26767,19 +26767,19 @@
         <v>185.1718302667157</v>
       </c>
       <c r="L3" t="n">
-        <v>185.1718302667157</v>
+        <v>185.1718302667158</v>
       </c>
       <c r="M3" t="n">
-        <v>185.1718302667157</v>
+        <v>185.1718302667158</v>
       </c>
       <c r="N3" t="n">
-        <v>185.1718302667157</v>
+        <v>185.1718302667158</v>
       </c>
       <c r="O3" t="n">
-        <v>185.1718302667157</v>
+        <v>185.1718302667158</v>
       </c>
       <c r="P3" t="n">
-        <v>185.1718302667157</v>
+        <v>185.1718302667158</v>
       </c>
     </row>
     <row r="4">
@@ -26804,19 +26804,19 @@
         <v>578.3566239295041</v>
       </c>
       <c r="G4" t="n">
-        <v>993.9082276485376</v>
+        <v>993.9082276485377</v>
       </c>
       <c r="H4" t="n">
+        <v>993.9082276485377</v>
+      </c>
+      <c r="I4" t="n">
+        <v>993.9082276485377</v>
+      </c>
+      <c r="J4" t="n">
+        <v>993.9082276485377</v>
+      </c>
+      <c r="K4" t="n">
         <v>993.9082276485375</v>
-      </c>
-      <c r="I4" t="n">
-        <v>993.9082276485375</v>
-      </c>
-      <c r="J4" t="n">
-        <v>993.9082276485375</v>
-      </c>
-      <c r="K4" t="n">
-        <v>993.9082276485376</v>
       </c>
       <c r="L4" t="n">
         <v>993.9082276485377</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>185.1718302667158</v>
+        <v>185.1718302667157</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>355.649504766698</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>21.64337430080172</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50.66579348026026</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>50.66579348026039</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27560,7 +27560,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>107.2626322044155</v>
       </c>
       <c r="T4" t="n">
-        <v>39.56973151112138</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>311.7433119310369</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>64.37087888041117</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>50.66579348026039</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>50.66579348026032</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27782,22 +27782,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>83.01253311791957</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>87.62118754448974</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27855,13 +27855,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.6236660436822</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27918,7 +27918,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>133.1216700511804</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -27991,13 +27991,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>50.66579348026039</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>50.66579348026042</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>1.407991256076144</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28076,7 +28076,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>122.294611972834</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -31752,28 +31752,28 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7444093679063944</v>
+        <v>0.7444093679063943</v>
       </c>
       <c r="H11" t="n">
-        <v>7.623682439071365</v>
+        <v>7.623682439071364</v>
       </c>
       <c r="I11" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J11" t="n">
-        <v>63.18081458934541</v>
+        <v>63.1808145893454</v>
       </c>
       <c r="K11" t="n">
-        <v>94.69166313282311</v>
+        <v>94.69166313282309</v>
       </c>
       <c r="L11" t="n">
-        <v>117.4733813258885</v>
+        <v>117.4733813258884</v>
       </c>
       <c r="M11" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8268245389579</v>
+        <v>132.8268245389578</v>
       </c>
       <c r="O11" t="n">
         <v>125.4246038868386</v>
@@ -31782,7 +31782,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.38783712850172</v>
+        <v>80.3878371285017</v>
       </c>
       <c r="R11" t="n">
         <v>46.76100495675009</v>
@@ -31791,10 +31791,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T11" t="n">
-        <v>3.258652008010244</v>
+        <v>3.258652008010243</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05955274943251155</v>
+        <v>0.05955274943251154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3982941254793509</v>
+        <v>0.3982941254793508</v>
       </c>
       <c r="H12" t="n">
-        <v>3.846682738182153</v>
+        <v>3.846682738182152</v>
       </c>
       <c r="I12" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J12" t="n">
-        <v>37.63006033750307</v>
+        <v>37.63006033750306</v>
       </c>
       <c r="K12" t="n">
-        <v>64.31576674461958</v>
+        <v>64.31576674461957</v>
       </c>
       <c r="L12" t="n">
-        <v>86.48048544673364</v>
+        <v>86.48048544673362</v>
       </c>
       <c r="M12" t="n">
         <v>100.9186474953601</v>
@@ -31855,22 +31855,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O12" t="n">
-        <v>94.76430449508048</v>
+        <v>94.76430449508047</v>
       </c>
       <c r="P12" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.84189573662732</v>
+        <v>50.84189573662731</v>
       </c>
       <c r="R12" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S12" t="n">
-        <v>7.398138690373027</v>
+        <v>7.398138690373025</v>
       </c>
       <c r="T12" t="n">
-        <v>1.605404830331243</v>
+        <v>1.605404830331242</v>
       </c>
       <c r="U12" t="n">
         <v>0.02620356088679941</v>
@@ -31913,31 +31913,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H13" t="n">
-        <v>2.968820491817183</v>
+        <v>2.968820491817182</v>
       </c>
       <c r="I13" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J13" t="n">
-        <v>23.60789055711883</v>
+        <v>23.60789055711882</v>
       </c>
       <c r="K13" t="n">
-        <v>38.79501624276438</v>
+        <v>38.79501624276437</v>
       </c>
       <c r="L13" t="n">
-        <v>49.64426413412902</v>
+        <v>49.64426413412901</v>
       </c>
       <c r="M13" t="n">
-        <v>52.34291588998327</v>
+        <v>52.34291588998326</v>
       </c>
       <c r="N13" t="n">
-        <v>51.09831834228899</v>
+        <v>51.09831834228898</v>
       </c>
       <c r="O13" t="n">
-        <v>47.19756749158849</v>
+        <v>47.19756749158848</v>
       </c>
       <c r="P13" t="n">
-        <v>40.3856726207932</v>
+        <v>40.38567262079319</v>
       </c>
       <c r="Q13" t="n">
         <v>27.96094637027408</v>
@@ -31946,13 +31946,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S13" t="n">
-        <v>5.819252436414655</v>
+        <v>5.819252436414654</v>
       </c>
       <c r="T13" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01821362264918518</v>
+        <v>0.01821362264918517</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,28 +31989,28 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7444093679063944</v>
+        <v>0.7444093679063943</v>
       </c>
       <c r="H14" t="n">
-        <v>7.623682439071365</v>
+        <v>7.623682439071364</v>
       </c>
       <c r="I14" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J14" t="n">
-        <v>63.18081458934541</v>
+        <v>63.1808145893454</v>
       </c>
       <c r="K14" t="n">
-        <v>94.69166313282311</v>
+        <v>94.69166313282309</v>
       </c>
       <c r="L14" t="n">
-        <v>117.4733813258885</v>
+        <v>117.4733813258884</v>
       </c>
       <c r="M14" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8268245389579</v>
+        <v>132.8268245389578</v>
       </c>
       <c r="O14" t="n">
         <v>125.4246038868386</v>
@@ -32019,7 +32019,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.38783712850172</v>
+        <v>80.3878371285017</v>
       </c>
       <c r="R14" t="n">
         <v>46.76100495675009</v>
@@ -32028,10 +32028,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T14" t="n">
-        <v>3.258652008010244</v>
+        <v>3.258652008010243</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05955274943251155</v>
+        <v>0.05955274943251154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3982941254793509</v>
+        <v>0.3982941254793508</v>
       </c>
       <c r="H15" t="n">
-        <v>3.846682738182153</v>
+        <v>3.846682738182152</v>
       </c>
       <c r="I15" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J15" t="n">
-        <v>37.63006033750307</v>
+        <v>37.63006033750306</v>
       </c>
       <c r="K15" t="n">
-        <v>64.31576674461958</v>
+        <v>64.31576674461957</v>
       </c>
       <c r="L15" t="n">
-        <v>86.48048544673364</v>
+        <v>86.48048544673362</v>
       </c>
       <c r="M15" t="n">
         <v>100.9186474953601</v>
@@ -32092,22 +32092,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O15" t="n">
-        <v>94.76430449508048</v>
+        <v>94.76430449508047</v>
       </c>
       <c r="P15" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.84189573662732</v>
+        <v>50.84189573662731</v>
       </c>
       <c r="R15" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S15" t="n">
-        <v>7.398138690373027</v>
+        <v>7.398138690373025</v>
       </c>
       <c r="T15" t="n">
-        <v>1.605404830331243</v>
+        <v>1.605404830331242</v>
       </c>
       <c r="U15" t="n">
         <v>0.02620356088679941</v>
@@ -32150,31 +32150,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H16" t="n">
-        <v>2.968820491817183</v>
+        <v>2.968820491817182</v>
       </c>
       <c r="I16" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J16" t="n">
-        <v>23.60789055711883</v>
+        <v>23.60789055711882</v>
       </c>
       <c r="K16" t="n">
-        <v>38.79501624276438</v>
+        <v>38.79501624276437</v>
       </c>
       <c r="L16" t="n">
-        <v>49.64426413412902</v>
+        <v>49.64426413412901</v>
       </c>
       <c r="M16" t="n">
-        <v>52.34291588998327</v>
+        <v>52.34291588998326</v>
       </c>
       <c r="N16" t="n">
-        <v>51.09831834228899</v>
+        <v>51.09831834228898</v>
       </c>
       <c r="O16" t="n">
-        <v>47.19756749158849</v>
+        <v>47.19756749158848</v>
       </c>
       <c r="P16" t="n">
-        <v>40.3856726207932</v>
+        <v>40.38567262079319</v>
       </c>
       <c r="Q16" t="n">
         <v>27.96094637027408</v>
@@ -32183,13 +32183,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S16" t="n">
-        <v>5.819252436414655</v>
+        <v>5.819252436414654</v>
       </c>
       <c r="T16" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01821362264918518</v>
+        <v>0.01821362264918517</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,28 +32226,28 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7444093679063944</v>
+        <v>0.7444093679063943</v>
       </c>
       <c r="H17" t="n">
-        <v>7.623682439071365</v>
+        <v>7.623682439071364</v>
       </c>
       <c r="I17" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J17" t="n">
-        <v>63.18081458934541</v>
+        <v>63.1808145893454</v>
       </c>
       <c r="K17" t="n">
-        <v>94.69166313282311</v>
+        <v>94.69166313282309</v>
       </c>
       <c r="L17" t="n">
-        <v>117.4733813258885</v>
+        <v>117.4733813258884</v>
       </c>
       <c r="M17" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8268245389579</v>
+        <v>132.8268245389578</v>
       </c>
       <c r="O17" t="n">
         <v>125.4246038868386</v>
@@ -32256,7 +32256,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.38783712850172</v>
+        <v>80.3878371285017</v>
       </c>
       <c r="R17" t="n">
         <v>46.76100495675009</v>
@@ -32265,10 +32265,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T17" t="n">
-        <v>3.258652008010244</v>
+        <v>3.258652008010243</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05955274943251155</v>
+        <v>0.05955274943251154</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3982941254793509</v>
+        <v>0.3982941254793508</v>
       </c>
       <c r="H18" t="n">
-        <v>3.846682738182153</v>
+        <v>3.846682738182152</v>
       </c>
       <c r="I18" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J18" t="n">
-        <v>37.63006033750307</v>
+        <v>37.63006033750306</v>
       </c>
       <c r="K18" t="n">
-        <v>64.31576674461958</v>
+        <v>64.31576674461957</v>
       </c>
       <c r="L18" t="n">
-        <v>86.48048544673364</v>
+        <v>86.48048544673362</v>
       </c>
       <c r="M18" t="n">
         <v>100.9186474953601</v>
@@ -32329,22 +32329,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O18" t="n">
-        <v>94.76430449508048</v>
+        <v>94.76430449508047</v>
       </c>
       <c r="P18" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.84189573662732</v>
+        <v>50.84189573662731</v>
       </c>
       <c r="R18" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S18" t="n">
-        <v>7.398138690373027</v>
+        <v>7.398138690373025</v>
       </c>
       <c r="T18" t="n">
-        <v>1.605404830331243</v>
+        <v>1.605404830331242</v>
       </c>
       <c r="U18" t="n">
         <v>0.02620356088679941</v>
@@ -32387,31 +32387,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H19" t="n">
-        <v>2.968820491817183</v>
+        <v>2.968820491817182</v>
       </c>
       <c r="I19" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J19" t="n">
-        <v>23.60789055711883</v>
+        <v>23.60789055711882</v>
       </c>
       <c r="K19" t="n">
-        <v>38.79501624276438</v>
+        <v>38.79501624276437</v>
       </c>
       <c r="L19" t="n">
-        <v>49.64426413412902</v>
+        <v>49.64426413412901</v>
       </c>
       <c r="M19" t="n">
-        <v>52.34291588998327</v>
+        <v>52.34291588998326</v>
       </c>
       <c r="N19" t="n">
-        <v>51.09831834228899</v>
+        <v>51.09831834228898</v>
       </c>
       <c r="O19" t="n">
-        <v>47.19756749158849</v>
+        <v>47.19756749158848</v>
       </c>
       <c r="P19" t="n">
-        <v>40.3856726207932</v>
+        <v>40.38567262079319</v>
       </c>
       <c r="Q19" t="n">
         <v>27.96094637027408</v>
@@ -32420,13 +32420,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S19" t="n">
-        <v>5.819252436414655</v>
+        <v>5.819252436414654</v>
       </c>
       <c r="T19" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01821362264918518</v>
+        <v>0.01821362264918517</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7444093679063943</v>
+        <v>0.7444093679063944</v>
       </c>
       <c r="H32" t="n">
-        <v>7.623682439071364</v>
+        <v>7.623682439071365</v>
       </c>
       <c r="I32" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J32" t="n">
-        <v>63.1808145893454</v>
+        <v>63.18081458934541</v>
       </c>
       <c r="K32" t="n">
-        <v>94.69166313282309</v>
+        <v>94.69166313282311</v>
       </c>
       <c r="L32" t="n">
-        <v>117.4733813258884</v>
+        <v>117.4733813258885</v>
       </c>
       <c r="M32" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N32" t="n">
-        <v>132.8268245389578</v>
+        <v>132.8268245389579</v>
       </c>
       <c r="O32" t="n">
         <v>125.4246038868386</v>
@@ -33441,7 +33441,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.3878371285017</v>
+        <v>80.38783712850172</v>
       </c>
       <c r="R32" t="n">
         <v>46.76100495675009</v>
@@ -33450,10 +33450,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T32" t="n">
-        <v>3.258652008010243</v>
+        <v>3.258652008010244</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05955274943251154</v>
+        <v>0.05955274943251155</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3982941254793508</v>
+        <v>0.3982941254793509</v>
       </c>
       <c r="H33" t="n">
-        <v>3.846682738182152</v>
+        <v>3.846682738182153</v>
       </c>
       <c r="I33" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J33" t="n">
-        <v>37.63006033750306</v>
+        <v>37.63006033750307</v>
       </c>
       <c r="K33" t="n">
-        <v>64.31576674461957</v>
+        <v>64.31576674461958</v>
       </c>
       <c r="L33" t="n">
-        <v>86.48048544673362</v>
+        <v>86.48048544673364</v>
       </c>
       <c r="M33" t="n">
         <v>100.9186474953601</v>
@@ -33514,22 +33514,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O33" t="n">
-        <v>94.76430449508047</v>
+        <v>94.76430449508048</v>
       </c>
       <c r="P33" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.84189573662731</v>
+        <v>50.84189573662732</v>
       </c>
       <c r="R33" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S33" t="n">
-        <v>7.398138690373025</v>
+        <v>7.398138690373027</v>
       </c>
       <c r="T33" t="n">
-        <v>1.605404830331242</v>
+        <v>1.605404830331243</v>
       </c>
       <c r="U33" t="n">
         <v>0.02620356088679941</v>
@@ -33572,31 +33572,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H34" t="n">
-        <v>2.968820491817182</v>
+        <v>2.968820491817183</v>
       </c>
       <c r="I34" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J34" t="n">
-        <v>23.60789055711882</v>
+        <v>23.60789055711883</v>
       </c>
       <c r="K34" t="n">
-        <v>38.79501624276437</v>
+        <v>38.79501624276438</v>
       </c>
       <c r="L34" t="n">
-        <v>49.64426413412901</v>
+        <v>49.64426413412902</v>
       </c>
       <c r="M34" t="n">
-        <v>52.34291588998326</v>
+        <v>52.34291588998327</v>
       </c>
       <c r="N34" t="n">
-        <v>51.09831834228898</v>
+        <v>51.09831834228899</v>
       </c>
       <c r="O34" t="n">
-        <v>47.19756749158848</v>
+        <v>47.19756749158849</v>
       </c>
       <c r="P34" t="n">
-        <v>40.38567262079319</v>
+        <v>40.3856726207932</v>
       </c>
       <c r="Q34" t="n">
         <v>27.96094637027408</v>
@@ -33605,13 +33605,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S34" t="n">
-        <v>5.819252436414654</v>
+        <v>5.819252436414655</v>
       </c>
       <c r="T34" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01821362264918517</v>
+        <v>0.01821362264918518</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7444093679063943</v>
+        <v>0.7444093679063944</v>
       </c>
       <c r="H35" t="n">
-        <v>7.623682439071364</v>
+        <v>7.623682439071365</v>
       </c>
       <c r="I35" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J35" t="n">
-        <v>63.1808145893454</v>
+        <v>63.18081458934541</v>
       </c>
       <c r="K35" t="n">
-        <v>94.69166313282309</v>
+        <v>94.69166313282311</v>
       </c>
       <c r="L35" t="n">
-        <v>117.4733813258884</v>
+        <v>117.4733813258885</v>
       </c>
       <c r="M35" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N35" t="n">
-        <v>132.8268245389578</v>
+        <v>132.8268245389579</v>
       </c>
       <c r="O35" t="n">
         <v>125.4246038868386</v>
@@ -33678,7 +33678,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.3878371285017</v>
+        <v>80.38783712850172</v>
       </c>
       <c r="R35" t="n">
         <v>46.76100495675009</v>
@@ -33687,10 +33687,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T35" t="n">
-        <v>3.258652008010243</v>
+        <v>3.258652008010244</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05955274943251154</v>
+        <v>0.05955274943251155</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3982941254793508</v>
+        <v>0.3982941254793509</v>
       </c>
       <c r="H36" t="n">
-        <v>3.846682738182152</v>
+        <v>3.846682738182153</v>
       </c>
       <c r="I36" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J36" t="n">
-        <v>37.63006033750306</v>
+        <v>37.63006033750307</v>
       </c>
       <c r="K36" t="n">
-        <v>64.31576674461957</v>
+        <v>64.31576674461958</v>
       </c>
       <c r="L36" t="n">
-        <v>86.48048544673362</v>
+        <v>86.48048544673364</v>
       </c>
       <c r="M36" t="n">
         <v>100.9186474953601</v>
@@ -33751,22 +33751,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O36" t="n">
-        <v>94.76430449508047</v>
+        <v>94.76430449508048</v>
       </c>
       <c r="P36" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.84189573662731</v>
+        <v>50.84189573662732</v>
       </c>
       <c r="R36" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S36" t="n">
-        <v>7.398138690373025</v>
+        <v>7.398138690373027</v>
       </c>
       <c r="T36" t="n">
-        <v>1.605404830331242</v>
+        <v>1.605404830331243</v>
       </c>
       <c r="U36" t="n">
         <v>0.02620356088679941</v>
@@ -33809,31 +33809,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H37" t="n">
-        <v>2.968820491817182</v>
+        <v>2.968820491817183</v>
       </c>
       <c r="I37" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J37" t="n">
-        <v>23.60789055711882</v>
+        <v>23.60789055711883</v>
       </c>
       <c r="K37" t="n">
-        <v>38.79501624276437</v>
+        <v>38.79501624276438</v>
       </c>
       <c r="L37" t="n">
-        <v>49.64426413412901</v>
+        <v>49.64426413412902</v>
       </c>
       <c r="M37" t="n">
-        <v>52.34291588998326</v>
+        <v>52.34291588998327</v>
       </c>
       <c r="N37" t="n">
-        <v>51.09831834228898</v>
+        <v>51.09831834228899</v>
       </c>
       <c r="O37" t="n">
-        <v>47.19756749158848</v>
+        <v>47.19756749158849</v>
       </c>
       <c r="P37" t="n">
-        <v>40.38567262079319</v>
+        <v>40.3856726207932</v>
       </c>
       <c r="Q37" t="n">
         <v>27.96094637027408</v>
@@ -33842,13 +33842,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S37" t="n">
-        <v>5.819252436414654</v>
+        <v>5.819252436414655</v>
       </c>
       <c r="T37" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01821362264918517</v>
+        <v>0.01821362264918518</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7444093679063943</v>
+        <v>0.7444093679063944</v>
       </c>
       <c r="H38" t="n">
-        <v>7.623682439071364</v>
+        <v>7.623682439071365</v>
       </c>
       <c r="I38" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J38" t="n">
-        <v>63.1808145893454</v>
+        <v>63.18081458934541</v>
       </c>
       <c r="K38" t="n">
-        <v>94.69166313282309</v>
+        <v>94.69166313282311</v>
       </c>
       <c r="L38" t="n">
-        <v>117.4733813258884</v>
+        <v>117.4733813258885</v>
       </c>
       <c r="M38" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N38" t="n">
-        <v>132.8268245389578</v>
+        <v>132.8268245389579</v>
       </c>
       <c r="O38" t="n">
         <v>125.4246038868386</v>
@@ -33915,7 +33915,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.3878371285017</v>
+        <v>80.38783712850172</v>
       </c>
       <c r="R38" t="n">
         <v>46.76100495675009</v>
@@ -33924,10 +33924,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T38" t="n">
-        <v>3.258652008010243</v>
+        <v>3.258652008010244</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05955274943251154</v>
+        <v>0.05955274943251155</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3982941254793508</v>
+        <v>0.3982941254793509</v>
       </c>
       <c r="H39" t="n">
-        <v>3.846682738182152</v>
+        <v>3.846682738182153</v>
       </c>
       <c r="I39" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J39" t="n">
-        <v>37.63006033750306</v>
+        <v>37.63006033750307</v>
       </c>
       <c r="K39" t="n">
-        <v>64.31576674461957</v>
+        <v>64.31576674461958</v>
       </c>
       <c r="L39" t="n">
-        <v>86.48048544673362</v>
+        <v>86.48048544673364</v>
       </c>
       <c r="M39" t="n">
         <v>100.9186474953601</v>
@@ -33988,22 +33988,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O39" t="n">
-        <v>94.76430449508047</v>
+        <v>94.76430449508048</v>
       </c>
       <c r="P39" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.84189573662731</v>
+        <v>50.84189573662732</v>
       </c>
       <c r="R39" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S39" t="n">
-        <v>7.398138690373025</v>
+        <v>7.398138690373027</v>
       </c>
       <c r="T39" t="n">
-        <v>1.605404830331242</v>
+        <v>1.605404830331243</v>
       </c>
       <c r="U39" t="n">
         <v>0.02620356088679941</v>
@@ -34046,31 +34046,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H40" t="n">
-        <v>2.968820491817182</v>
+        <v>2.968820491817183</v>
       </c>
       <c r="I40" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J40" t="n">
-        <v>23.60789055711882</v>
+        <v>23.60789055711883</v>
       </c>
       <c r="K40" t="n">
-        <v>38.79501624276437</v>
+        <v>38.79501624276438</v>
       </c>
       <c r="L40" t="n">
-        <v>49.64426413412901</v>
+        <v>49.64426413412902</v>
       </c>
       <c r="M40" t="n">
-        <v>52.34291588998326</v>
+        <v>52.34291588998327</v>
       </c>
       <c r="N40" t="n">
-        <v>51.09831834228898</v>
+        <v>51.09831834228899</v>
       </c>
       <c r="O40" t="n">
-        <v>47.19756749158848</v>
+        <v>47.19756749158849</v>
       </c>
       <c r="P40" t="n">
-        <v>40.38567262079319</v>
+        <v>40.3856726207932</v>
       </c>
       <c r="Q40" t="n">
         <v>27.96094637027408</v>
@@ -34079,13 +34079,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S40" t="n">
-        <v>5.819252436414654</v>
+        <v>5.819252436414655</v>
       </c>
       <c r="T40" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01821362264918517</v>
+        <v>0.01821362264918518</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7444093679063943</v>
+        <v>0.7444093679063944</v>
       </c>
       <c r="H41" t="n">
-        <v>7.623682439071364</v>
+        <v>7.623682439071365</v>
       </c>
       <c r="I41" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J41" t="n">
-        <v>63.1808145893454</v>
+        <v>63.18081458934541</v>
       </c>
       <c r="K41" t="n">
-        <v>94.69166313282309</v>
+        <v>94.69166313282311</v>
       </c>
       <c r="L41" t="n">
-        <v>117.4733813258884</v>
+        <v>117.4733813258885</v>
       </c>
       <c r="M41" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N41" t="n">
-        <v>132.8268245389578</v>
+        <v>132.8268245389579</v>
       </c>
       <c r="O41" t="n">
         <v>125.4246038868386</v>
@@ -34152,7 +34152,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.3878371285017</v>
+        <v>80.38783712850172</v>
       </c>
       <c r="R41" t="n">
         <v>46.76100495675009</v>
@@ -34161,10 +34161,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T41" t="n">
-        <v>3.258652008010243</v>
+        <v>3.258652008010244</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05955274943251154</v>
+        <v>0.05955274943251155</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3982941254793508</v>
+        <v>0.3982941254793509</v>
       </c>
       <c r="H42" t="n">
-        <v>3.846682738182152</v>
+        <v>3.846682738182153</v>
       </c>
       <c r="I42" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J42" t="n">
-        <v>37.63006033750306</v>
+        <v>37.63006033750307</v>
       </c>
       <c r="K42" t="n">
-        <v>64.31576674461957</v>
+        <v>64.31576674461958</v>
       </c>
       <c r="L42" t="n">
-        <v>86.48048544673362</v>
+        <v>86.48048544673364</v>
       </c>
       <c r="M42" t="n">
         <v>100.9186474953601</v>
@@ -34225,22 +34225,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O42" t="n">
-        <v>94.76430449508047</v>
+        <v>94.76430449508048</v>
       </c>
       <c r="P42" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.84189573662731</v>
+        <v>50.84189573662732</v>
       </c>
       <c r="R42" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S42" t="n">
-        <v>7.398138690373025</v>
+        <v>7.398138690373027</v>
       </c>
       <c r="T42" t="n">
-        <v>1.605404830331242</v>
+        <v>1.605404830331243</v>
       </c>
       <c r="U42" t="n">
         <v>0.02620356088679941</v>
@@ -34283,31 +34283,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H43" t="n">
-        <v>2.968820491817182</v>
+        <v>2.968820491817183</v>
       </c>
       <c r="I43" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J43" t="n">
-        <v>23.60789055711882</v>
+        <v>23.60789055711883</v>
       </c>
       <c r="K43" t="n">
-        <v>38.79501624276437</v>
+        <v>38.79501624276438</v>
       </c>
       <c r="L43" t="n">
-        <v>49.64426413412901</v>
+        <v>49.64426413412902</v>
       </c>
       <c r="M43" t="n">
-        <v>52.34291588998326</v>
+        <v>52.34291588998327</v>
       </c>
       <c r="N43" t="n">
-        <v>51.09831834228898</v>
+        <v>51.09831834228899</v>
       </c>
       <c r="O43" t="n">
-        <v>47.19756749158848</v>
+        <v>47.19756749158849</v>
       </c>
       <c r="P43" t="n">
-        <v>40.38567262079319</v>
+        <v>40.3856726207932</v>
       </c>
       <c r="Q43" t="n">
         <v>27.96094637027408</v>
@@ -34316,13 +34316,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S43" t="n">
-        <v>5.819252436414654</v>
+        <v>5.819252436414655</v>
       </c>
       <c r="T43" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01821362264918517</v>
+        <v>0.01821362264918518</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,28 +34359,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7444093679063943</v>
+        <v>0.7444093679063944</v>
       </c>
       <c r="H44" t="n">
-        <v>7.623682439071364</v>
+        <v>7.623682439071365</v>
       </c>
       <c r="I44" t="n">
         <v>28.6988421562113</v>
       </c>
       <c r="J44" t="n">
-        <v>63.1808145893454</v>
+        <v>63.18081458934541</v>
       </c>
       <c r="K44" t="n">
-        <v>94.69166313282309</v>
+        <v>94.69166313282311</v>
       </c>
       <c r="L44" t="n">
-        <v>117.4733813258884</v>
+        <v>117.4733813258885</v>
       </c>
       <c r="M44" t="n">
         <v>130.7117714223938</v>
       </c>
       <c r="N44" t="n">
-        <v>132.8268245389578</v>
+        <v>132.8268245389579</v>
       </c>
       <c r="O44" t="n">
         <v>125.4246038868386</v>
@@ -34389,7 +34389,7 @@
         <v>107.0469976166495</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.3878371285017</v>
+        <v>80.38783712850172</v>
       </c>
       <c r="R44" t="n">
         <v>46.76100495675009</v>
@@ -34398,10 +34398,10 @@
         <v>16.96322847116698</v>
       </c>
       <c r="T44" t="n">
-        <v>3.258652008010243</v>
+        <v>3.258652008010244</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05955274943251154</v>
+        <v>0.05955274943251155</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3982941254793508</v>
+        <v>0.3982941254793509</v>
       </c>
       <c r="H45" t="n">
-        <v>3.846682738182152</v>
+        <v>3.846682738182153</v>
       </c>
       <c r="I45" t="n">
         <v>13.71319686409169</v>
       </c>
       <c r="J45" t="n">
-        <v>37.63006033750306</v>
+        <v>37.63006033750307</v>
       </c>
       <c r="K45" t="n">
-        <v>64.31576674461957</v>
+        <v>64.31576674461958</v>
       </c>
       <c r="L45" t="n">
-        <v>86.48048544673362</v>
+        <v>86.48048544673364</v>
       </c>
       <c r="M45" t="n">
         <v>100.9186474953601</v>
@@ -34462,22 +34462,22 @@
         <v>103.5896638017545</v>
       </c>
       <c r="O45" t="n">
-        <v>94.76430449508047</v>
+        <v>94.76430449508048</v>
       </c>
       <c r="P45" t="n">
         <v>76.05670892596483</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.84189573662731</v>
+        <v>50.84189573662732</v>
       </c>
       <c r="R45" t="n">
         <v>24.72917386090216</v>
       </c>
       <c r="S45" t="n">
-        <v>7.398138690373025</v>
+        <v>7.398138690373027</v>
       </c>
       <c r="T45" t="n">
-        <v>1.605404830331242</v>
+        <v>1.605404830331243</v>
       </c>
       <c r="U45" t="n">
         <v>0.02620356088679941</v>
@@ -34520,31 +34520,31 @@
         <v>0.3339164152350612</v>
       </c>
       <c r="H46" t="n">
-        <v>2.968820491817182</v>
+        <v>2.968820491817183</v>
       </c>
       <c r="I46" t="n">
         <v>10.04177728725075</v>
       </c>
       <c r="J46" t="n">
-        <v>23.60789055711882</v>
+        <v>23.60789055711883</v>
       </c>
       <c r="K46" t="n">
-        <v>38.79501624276437</v>
+        <v>38.79501624276438</v>
       </c>
       <c r="L46" t="n">
-        <v>49.64426413412901</v>
+        <v>49.64426413412902</v>
       </c>
       <c r="M46" t="n">
-        <v>52.34291588998326</v>
+        <v>52.34291588998327</v>
       </c>
       <c r="N46" t="n">
-        <v>51.09831834228898</v>
+        <v>51.09831834228899</v>
       </c>
       <c r="O46" t="n">
-        <v>47.19756749158848</v>
+        <v>47.19756749158849</v>
       </c>
       <c r="P46" t="n">
-        <v>40.38567262079319</v>
+        <v>40.3856726207932</v>
       </c>
       <c r="Q46" t="n">
         <v>27.96094637027408</v>
@@ -34553,13 +34553,13 @@
         <v>15.01409627047829</v>
       </c>
       <c r="S46" t="n">
-        <v>5.819252436414654</v>
+        <v>5.819252436414655</v>
       </c>
       <c r="T46" t="n">
         <v>1.42673377418617</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01821362264918517</v>
+        <v>0.01821362264918518</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>22.5683487088747</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34713,10 +34713,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>11.66444578368256</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>519.1617725488344</v>
+        <v>578.3566239295041</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>55.06270641703482</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>76.38722833129916</v>
       </c>
       <c r="M5" t="n">
         <v>551.5160606510915</v>
@@ -34953,10 +34953,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.501127880735</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>123.157052458529</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>578.3566239295041</v>
       </c>
       <c r="N6" t="n">
-        <v>578.3566239295041</v>
+        <v>106.286906029519</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>379.8153060330654</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>198.3771327947418</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>201.8890900160194</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>578.3566239295041</v>
       </c>
       <c r="N9" t="n">
-        <v>578.3566239295041</v>
+        <v>27.55486847202868</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>457.3001035646028</v>
       </c>
       <c r="L11" t="n">
-        <v>578.3566239295041</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>578.3566239295041</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>554.2882338457744</v>
+        <v>527.8493188773816</v>
       </c>
       <c r="O11" t="n">
         <v>569.909049232625</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>458.7515351232372</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>267.1005241395608</v>
       </c>
       <c r="R11" t="n">
-        <v>9.148020379416813</v>
+        <v>9.148020379416806</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>69.21341634335988</v>
+        <v>574.9310772632117</v>
       </c>
       <c r="M12" t="n">
-        <v>578.3566239295041</v>
+        <v>344.1524233529445</v>
       </c>
       <c r="N12" t="n">
-        <v>578.3566239295041</v>
+        <v>18.21755094758785</v>
       </c>
       <c r="O12" t="n">
         <v>578.3566239295041</v>
@@ -35509,10 +35509,10 @@
         <v>485.7752631849521</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.051301189986059</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>209.2916963154344</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>457.3001035646028</v>
       </c>
       <c r="L14" t="n">
         <v>578.3566239295041</v>
       </c>
       <c r="M14" t="n">
-        <v>554.2882338457745</v>
+        <v>16.44954315142095</v>
       </c>
       <c r="N14" t="n">
-        <v>578.3566239295041</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>569.909049232625</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>458.7515351232372</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.148020379416813</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35743,13 +35743,13 @@
         <v>578.3566239295041</v>
       </c>
       <c r="P15" t="n">
-        <v>485.7752631849521</v>
+        <v>114.4754487544806</v>
       </c>
       <c r="Q15" t="n">
-        <v>69.21341634336001</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.051301189986059</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>209.2916963154344</v>
       </c>
       <c r="K17" t="n">
-        <v>457.3001035646028</v>
+        <v>457.3001035646038</v>
       </c>
       <c r="L17" t="n">
         <v>615.7767062940994</v>
@@ -35907,7 +35907,7 @@
         <v>267.1005241395608</v>
       </c>
       <c r="R17" t="n">
-        <v>9.148020379416813</v>
+        <v>9.148020379416806</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L18" t="n">
         <v>574.9310772632117</v>
       </c>
       <c r="M18" t="n">
-        <v>594.6326962431826</v>
+        <v>8.53152544604815</v>
       </c>
       <c r="N18" t="n">
-        <v>18.21755094758787</v>
+        <v>18.21755094758785</v>
       </c>
       <c r="O18" t="n">
-        <v>616.5019636778896</v>
+        <v>375.85660374027</v>
       </c>
       <c r="P18" t="n">
         <v>485.7752631849521</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>209.2916963154344</v>
       </c>
       <c r="K20" t="n">
-        <v>457.3001035646028</v>
+        <v>457.3001035646038</v>
       </c>
       <c r="L20" t="n">
         <v>615.7767062940994</v>
@@ -36144,7 +36144,7 @@
         <v>267.1005241395608</v>
       </c>
       <c r="R20" t="n">
-        <v>9.148020379416726</v>
+        <v>9.148020379416806</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>574.9310772632117</v>
       </c>
       <c r="M21" t="n">
-        <v>669.8856950287649</v>
+        <v>8.53152544604815</v>
       </c>
       <c r="N21" t="n">
         <v>18.21755094758785</v>
       </c>
       <c r="O21" t="n">
-        <v>2.076745606191579</v>
+        <v>374.805302550284</v>
       </c>
       <c r="P21" t="n">
         <v>485.7752631849521</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.051301189986059</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L24" t="n">
         <v>574.9310772632117</v>
       </c>
       <c r="M24" t="n">
-        <v>735.0314248960481</v>
+        <v>8.53152544604815</v>
       </c>
       <c r="N24" t="n">
-        <v>363.5940854796743</v>
+        <v>18.21755094758785</v>
       </c>
       <c r="O24" t="n">
-        <v>616.5019636778895</v>
+        <v>374.805302550284</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>485.7752631849521</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.051301189986059</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>574.9310772632117</v>
       </c>
       <c r="M27" t="n">
-        <v>735.0314248960481</v>
+        <v>8.53152544604815</v>
       </c>
       <c r="N27" t="n">
-        <v>765.9916549235313</v>
+        <v>18.21755094758785</v>
       </c>
       <c r="O27" t="n">
-        <v>500.4098588586207</v>
+        <v>374.805302550284</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>485.7752631849521</v>
       </c>
       <c r="Q27" t="n">
         <v>287.5743114486379</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L30" t="n">
         <v>574.9310772632117</v>
       </c>
       <c r="M30" t="n">
-        <v>332.6338554521912</v>
+        <v>8.53152544604815</v>
       </c>
       <c r="N30" t="n">
-        <v>765.9916549235313</v>
+        <v>18.21755094758785</v>
       </c>
       <c r="O30" t="n">
-        <v>616.5019636778895</v>
+        <v>375.85660374027</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>485.7752631849521</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>267.1005241395608</v>
       </c>
       <c r="R32" t="n">
-        <v>9.148020379416806</v>
+        <v>9.148020379416813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>574.9310772632117</v>
       </c>
       <c r="M33" t="n">
-        <v>735.0314248960481</v>
+        <v>8.531525446048164</v>
       </c>
       <c r="N33" t="n">
-        <v>765.9916549235313</v>
+        <v>64.09520126861995</v>
       </c>
       <c r="O33" t="n">
-        <v>302.2089071223064</v>
+        <v>616.5019636778896</v>
       </c>
       <c r="P33" t="n">
         <v>485.7752631849521</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>1.051301189986059</v>
+        <v>1.051301189986063</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>267.1005241395608</v>
       </c>
       <c r="R35" t="n">
-        <v>9.148020379416806</v>
+        <v>9.148020379416813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L36" t="n">
         <v>574.9310772632117</v>
       </c>
       <c r="M36" t="n">
-        <v>594.6326962431826</v>
+        <v>8.531525446048164</v>
       </c>
       <c r="N36" t="n">
-        <v>18.21755094758785</v>
+        <v>18.21755094758787</v>
       </c>
       <c r="O36" t="n">
-        <v>616.5019636778895</v>
+        <v>374.805302550284</v>
       </c>
       <c r="P36" t="n">
         <v>485.7752631849521</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.051301189986063</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>209.2916963154344</v>
+        <v>209.291696315435</v>
       </c>
       <c r="K38" t="n">
         <v>457.3001035646028</v>
@@ -37566,7 +37566,7 @@
         <v>267.1005241395608</v>
       </c>
       <c r="R38" t="n">
-        <v>9.148020379417185</v>
+        <v>9.148020379416813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.8876181352075</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>574.9310772632117</v>
       </c>
       <c r="M39" t="n">
-        <v>735.0314248960481</v>
+        <v>8.531525446048164</v>
       </c>
       <c r="N39" t="n">
-        <v>451.698598367948</v>
+        <v>18.21755094758787</v>
       </c>
       <c r="O39" t="n">
-        <v>616.5019636778895</v>
+        <v>374.805302550284</v>
       </c>
       <c r="P39" t="n">
         <v>485.7752631849521</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R39" t="n">
-        <v>1.051301189986059</v>
+        <v>1.051301189986063</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>209.2916963154344</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>457.3001035646028</v>
       </c>
       <c r="L41" t="n">
-        <v>95.53669872253749</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>578.3566239295042</v>
       </c>
       <c r="N41" t="n">
-        <v>578.3566239295042</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>569.909049232625</v>
+        <v>319.2580682444856</v>
       </c>
       <c r="P41" t="n">
         <v>458.7515351232372</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>267.1005241395608</v>
       </c>
       <c r="R41" t="n">
-        <v>9.148020379416806</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.8876181352075</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>387.2846011509089</v>
       </c>
       <c r="L42" t="n">
-        <v>487.1508966916085</v>
+        <v>574.9310772632117</v>
       </c>
       <c r="M42" t="n">
-        <v>8.53152544604815</v>
+        <v>8.531525446048164</v>
       </c>
       <c r="N42" t="n">
-        <v>578.3566239295042</v>
+        <v>18.21755094758787</v>
       </c>
       <c r="O42" t="n">
-        <v>578.3566239295042</v>
+        <v>374.8053025502842</v>
       </c>
       <c r="P42" t="n">
         <v>485.7752631849521</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.051301189986063</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>209.2916963154344</v>
       </c>
       <c r="K44" t="n">
-        <v>457.3001035646028</v>
+        <v>336.5489628334608</v>
       </c>
       <c r="L44" t="n">
         <v>578.3566239295042</v>
@@ -38031,7 +38031,7 @@
         <v>578.3566239295042</v>
       </c>
       <c r="O44" t="n">
-        <v>97.68857596370916</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>9.148020379416813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>578.3566239295042</v>
+        <v>358.9444276342402</v>
       </c>
       <c r="N45" t="n">
         <v>578.3566239295042</v>
@@ -38116,10 +38116,10 @@
         <v>485.7752631849521</v>
       </c>
       <c r="Q45" t="n">
-        <v>69.21341634336001</v>
+        <v>287.5743114486379</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.051301189986063</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
